--- a/ثبت گزارشات خرابی نگهداری و تعمیرات اسفند .xlsx
+++ b/ثبت گزارشات خرابی نگهداری و تعمیرات اسفند .xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2601" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2657" uniqueCount="1107">
   <si>
     <t>نام دستگاه</t>
   </si>
@@ -3284,6 +3284,75 @@
   </si>
   <si>
     <t>علت از خرابی نافی آب صابون تارت بود که تارت دمنتاژ و پس از ساخت نافی توسط تراشکاری درمحل خود نصب و راه اندازی گردید</t>
+  </si>
+  <si>
+    <t>بهزاد نصیریان</t>
+  </si>
+  <si>
+    <t>1399/12/17</t>
+  </si>
+  <si>
+    <t>خرابی گیربکس</t>
+  </si>
+  <si>
+    <t>باز کردن مجموعه الکتروموتور وگیربکس که بدلیل خرابی تعویض گردید و زنجیر ریگلاژ تنظیم شد</t>
+  </si>
+  <si>
+    <t>عدم حرکت غلطکها</t>
+  </si>
+  <si>
+    <t>ریگلاژ زنجیر و تنظیم کردن آن</t>
+  </si>
+  <si>
+    <t>حرکت نکردن محورXربات</t>
+  </si>
+  <si>
+    <t>مورد از میکروسویچ حدX1 بود که با انجام تنظیمات لازم برطرف گردید</t>
+  </si>
+  <si>
+    <t>M-PSP001</t>
+  </si>
+  <si>
+    <t>شات پلاست</t>
+  </si>
+  <si>
+    <t>سینا جلیل زاده</t>
+  </si>
+  <si>
+    <t>پارگی تسمه</t>
+  </si>
+  <si>
+    <t>بعلت پارگی تسمه دستگاه از کار افتاده بود که تسمه های جدید جایگزین و دستگاه راه اندازی گردید</t>
+  </si>
+  <si>
+    <t>تسمه B49 - 3عدد</t>
+  </si>
+  <si>
+    <t>احسان رنجبر</t>
+  </si>
+  <si>
+    <t>خرابی جک هیدرولیک که با تعویض پکینگ مورد برطرف گردید</t>
+  </si>
+  <si>
+    <t>پکینگ 7*40*30 - یک عدد</t>
+  </si>
+  <si>
+    <t>1399/12/18</t>
+  </si>
+  <si>
+    <t>خاموش شدن خودبه خودی دستگاه</t>
+  </si>
+  <si>
+    <t>مورد بررسی گردید که علت از برخورد سیم های شستی تعویض ابزار با بدنه بود که پس از ترمیم مورد برطرف گردید</t>
+  </si>
+  <si>
+    <t>فخرالدین پدرود</t>
+  </si>
+  <si>
+    <t>عدم کارکرد هیدرولیک دستگاه</t>
+  </si>
+  <si>
+    <t>مورد بررسی گردید که علت از عمل کردن فیوز باسپار بود که دوفاز شده بود که پس از وصل کلید فیوز باسپار و رفع مورد بی متال پمپ ایراد برطرف گردید</t>
   </si>
 </sst>
 </file>
@@ -3717,17 +3786,17 @@
     <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="21" fontId="6" fillId="14" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -10665,8 +10734,8 @@
   <dimension ref="A1:BJ152"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="S1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="S14" sqref="S14"/>
+      <pane xSplit="2" topLeftCell="U1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -10729,10 +10798,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="16">
         <v>1</v>
       </c>
@@ -10915,7 +10984,7 @@
       </c>
     </row>
     <row r="2" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A2" s="78">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -10991,15 +11060,15 @@
       </c>
       <c r="T2" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(T3,'اطلاعات پایه'!$D$4:$E$999,2,FALSE))=TRUE,"",VLOOKUP(T3,'اطلاعات پایه'!$D$4:$E$999,2,FALSE))</f>
-        <v/>
+        <v>اره نواری Kesmak 280</v>
       </c>
       <c r="U2" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(U3,'اطلاعات پایه'!$D$4:$E$999,2,FALSE))=TRUE,"",VLOOKUP(U3,'اطلاعات پایه'!$D$4:$E$999,2,FALSE))</f>
-        <v/>
+        <v>اره نواری Kesmak 280</v>
       </c>
       <c r="V2" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(V3,'اطلاعات پایه'!$D$4:$E$999,2,FALSE))=TRUE,"",VLOOKUP(V3,'اطلاعات پایه'!$D$4:$E$999,2,FALSE))</f>
-        <v/>
+        <v>تراش CNC MAZAK SUPER QUICK TURN 10</v>
       </c>
       <c r="W2" s="2" t="str">
         <f>IF(ISNA(VLOOKUP(W3,'اطلاعات پایه'!$D$4:$E$999,2,FALSE))=TRUE,"",VLOOKUP(W3,'اطلاعات پایه'!$D$4:$E$999,2,FALSE))</f>
@@ -11163,7 +11232,7 @@
       </c>
     </row>
     <row r="3" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -11218,9 +11287,15 @@
       <c r="S3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
+      <c r="T3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="V3" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
@@ -11263,7 +11338,7 @@
       <c r="BJ3" s="2"/>
     </row>
     <row r="4" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="78"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -11318,9 +11393,15 @@
       <c r="S4" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+      <c r="T4" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="U4" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="V4" s="15" t="s">
+        <v>1104</v>
+      </c>
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
@@ -11363,7 +11444,7 @@
       <c r="BJ4" s="2"/>
     </row>
     <row r="5" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="78"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -11418,9 +11499,15 @@
       <c r="S5" s="40">
         <v>0.625</v>
       </c>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
+      <c r="T5" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="U5" s="40">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="V5" s="40">
+        <v>0.65625</v>
+      </c>
       <c r="W5" s="40"/>
       <c r="X5" s="40"/>
       <c r="Y5" s="42"/>
@@ -11463,7 +11550,7 @@
       <c r="BJ5" s="2"/>
     </row>
     <row r="6" spans="1:62" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="78"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -11518,9 +11605,15 @@
       <c r="S6" s="39" t="s">
         <v>1081</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="39"/>
-      <c r="V6" s="39"/>
+      <c r="T6" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="U6" s="39" t="s">
+        <v>1085</v>
+      </c>
+      <c r="V6" s="39" t="s">
+        <v>1085</v>
+      </c>
       <c r="W6" s="39"/>
       <c r="X6" s="39"/>
       <c r="Y6" s="2"/>
@@ -11563,7 +11656,7 @@
       <c r="BJ6" s="2"/>
     </row>
     <row r="7" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A7" s="78"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -11612,15 +11705,21 @@
       <c r="Q7" s="40">
         <v>0.70833333333333337</v>
       </c>
-      <c r="R7" s="80">
+      <c r="R7" s="78">
         <v>44520</v>
       </c>
       <c r="S7" s="40">
         <v>0.75</v>
       </c>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
+      <c r="T7" s="40">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="U7" s="40">
+        <v>0.375</v>
+      </c>
+      <c r="V7" s="40">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="W7" s="40"/>
       <c r="X7" s="40"/>
       <c r="Y7" s="40"/>
@@ -11663,7 +11762,7 @@
       <c r="BJ7" s="2"/>
     </row>
     <row r="8" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A8" s="78"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -11718,9 +11817,15 @@
       <c r="S8" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="39"/>
-      <c r="V8" s="39"/>
+      <c r="T8" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="U8" s="39" t="s">
+        <v>1085</v>
+      </c>
+      <c r="V8" s="39" t="s">
+        <v>1085</v>
+      </c>
       <c r="W8" s="2"/>
       <c r="X8" s="39"/>
       <c r="Y8" s="2"/>
@@ -11763,7 +11868,7 @@
       <c r="BJ8" s="2"/>
     </row>
     <row r="9" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A9" s="78"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -11797,7 +11902,7 @@
       <c r="L9" s="40">
         <v>4.8611111111111112E-2</v>
       </c>
-      <c r="M9" s="79">
+      <c r="M9" s="77">
         <v>0.19444444444444445</v>
       </c>
       <c r="N9" s="65">
@@ -11818,9 +11923,15 @@
       <c r="S9" s="63">
         <v>0.125</v>
       </c>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
+      <c r="T9" s="40">
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="U9" s="40">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="V9" s="40">
+        <v>5.2083333333333336E-2</v>
+      </c>
       <c r="W9" s="40"/>
       <c r="X9" s="40"/>
       <c r="Y9" s="37"/>
@@ -11863,7 +11974,7 @@
       <c r="BJ9" s="36"/>
     </row>
     <row r="10" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A10" s="78"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -11918,9 +12029,15 @@
       <c r="S10" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
+      <c r="T10" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>992</v>
+      </c>
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
@@ -11963,7 +12080,7 @@
       <c r="BJ10" s="2"/>
     </row>
     <row r="11" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A11" s="78"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -12018,9 +12135,15 @@
       <c r="S11" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
+      <c r="T11" s="2" t="s">
+        <v>1086</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>1088</v>
+      </c>
+      <c r="V11" s="2" t="s">
+        <v>1105</v>
+      </c>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
@@ -12063,7 +12186,7 @@
       <c r="BJ11" s="2"/>
     </row>
     <row r="12" spans="1:62" s="58" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="78"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="3" t="s">
         <v>926</v>
       </c>
@@ -12118,9 +12241,15 @@
       <c r="S12" s="57" t="s">
         <v>932</v>
       </c>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
+      <c r="T12" s="57" t="s">
+        <v>932</v>
+      </c>
+      <c r="U12" s="57" t="s">
+        <v>932</v>
+      </c>
+      <c r="V12" s="57" t="s">
+        <v>934</v>
+      </c>
       <c r="W12" s="57"/>
       <c r="X12" s="57"/>
       <c r="Y12" s="57"/>
@@ -12162,8 +12291,8 @@
       <c r="BI12" s="57"/>
       <c r="BJ12" s="57"/>
     </row>
-    <row r="13" spans="1:62" s="75" customFormat="1" ht="36" x14ac:dyDescent="0.45">
-      <c r="A13" s="78"/>
+    <row r="13" spans="1:62" s="75" customFormat="1" ht="54" x14ac:dyDescent="0.45">
+      <c r="A13" s="80"/>
       <c r="B13" s="71" t="s">
         <v>10</v>
       </c>
@@ -12218,9 +12347,15 @@
       <c r="S13" s="41" t="s">
         <v>1083</v>
       </c>
-      <c r="T13" s="41"/>
-      <c r="U13" s="41"/>
-      <c r="V13" s="41"/>
+      <c r="T13" s="41" t="s">
+        <v>1087</v>
+      </c>
+      <c r="U13" s="41" t="s">
+        <v>1089</v>
+      </c>
+      <c r="V13" s="41" t="s">
+        <v>1106</v>
+      </c>
       <c r="W13" s="41"/>
       <c r="X13" s="41"/>
       <c r="Y13" s="41"/>
@@ -12263,7 +12398,7 @@
       <c r="BJ13" s="41"/>
     </row>
     <row r="14" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A14" s="78"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -12339,7 +12474,7 @@
       <c r="BJ14" s="2"/>
     </row>
     <row r="15" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A15" s="78"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -12469,7 +12604,7 @@
       </c>
       <c r="T16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U16" s="7">
         <v>1</v>
@@ -12626,7 +12761,7 @@
       </c>
     </row>
     <row r="17" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A17" s="78">
+      <c r="A17" s="80">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -12653,7 +12788,9 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
       <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
+      <c r="R17" s="2" t="s">
+        <v>1077</v>
+      </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
@@ -12700,7 +12837,7 @@
       <c r="BJ17" s="2"/>
     </row>
     <row r="18" spans="1:62" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="78"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="67" t="s">
         <v>6</v>
       </c>
@@ -12725,7 +12862,9 @@
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
-      <c r="R18" s="42"/>
+      <c r="R18" s="42">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
@@ -12772,7 +12911,7 @@
       <c r="BJ18" s="42"/>
     </row>
     <row r="19" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A19" s="78"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -12797,7 +12936,9 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>1101</v>
+      </c>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
@@ -12844,7 +12985,7 @@
       <c r="BJ19" s="2"/>
     </row>
     <row r="20" spans="1:62" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="78"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="67" t="s">
         <v>3</v>
       </c>
@@ -12869,7 +13010,9 @@
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
       <c r="Q20" s="42"/>
-      <c r="R20" s="42"/>
+      <c r="R20" s="42">
+        <v>0.38194444444444442</v>
+      </c>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
@@ -12916,7 +13059,7 @@
       <c r="BJ20" s="42"/>
     </row>
     <row r="21" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A21" s="78"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
@@ -12941,7 +13084,9 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
+      <c r="R21" s="2" t="s">
+        <v>1101</v>
+      </c>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
@@ -12988,7 +13133,7 @@
       <c r="BJ21" s="2"/>
     </row>
     <row r="22" spans="1:62" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="78"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="67" t="s">
         <v>1</v>
       </c>
@@ -13013,7 +13158,9 @@
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
-      <c r="R22" s="42"/>
+      <c r="R22" s="42">
+        <v>4.8611111111111112E-2</v>
+      </c>
       <c r="S22" s="42"/>
       <c r="T22" s="42"/>
       <c r="U22" s="42"/>
@@ -13060,7 +13207,7 @@
       <c r="BJ22" s="42"/>
     </row>
     <row r="23" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A23" s="78"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
@@ -13085,7 +13232,9 @@
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>992</v>
+      </c>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
@@ -13132,7 +13281,7 @@
       <c r="BJ23" s="2"/>
     </row>
     <row r="24" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A24" s="78"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
@@ -13157,7 +13306,9 @@
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
+      <c r="R24" s="2" t="s">
+        <v>1102</v>
+      </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
@@ -13204,7 +13355,7 @@
       <c r="BJ24" s="2"/>
     </row>
     <row r="25" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A25" s="78"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="3" t="s">
         <v>926</v>
       </c>
@@ -13229,7 +13380,9 @@
       <c r="O25" s="9"/>
       <c r="P25" s="9"/>
       <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="R25" s="9" t="s">
+        <v>933</v>
+      </c>
       <c r="S25" s="9"/>
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
@@ -13276,7 +13429,7 @@
       <c r="BJ25" s="9"/>
     </row>
     <row r="26" spans="1:62" s="69" customFormat="1" ht="36" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="66" t="s">
         <v>10</v>
       </c>
@@ -13301,7 +13454,9 @@
       <c r="O26" s="2"/>
       <c r="P26" s="41"/>
       <c r="Q26" s="41"/>
-      <c r="R26" s="41"/>
+      <c r="R26" s="41" t="s">
+        <v>1103</v>
+      </c>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
@@ -13348,7 +13503,7 @@
       <c r="BJ26" s="2"/>
     </row>
     <row r="27" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A27" s="78"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
@@ -13414,7 +13569,7 @@
       <c r="BJ27" s="2"/>
     </row>
     <row r="28" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A28" s="78"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -13542,7 +13697,7 @@
       </c>
       <c r="R29" s="7">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="7">
         <f t="shared" si="3"/>
@@ -13722,7 +13877,7 @@
       </c>
     </row>
     <row r="30" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A30" s="78">
+      <c r="A30" s="80">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -13734,7 +13889,9 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
+      <c r="I30" s="2" t="s">
+        <v>1032</v>
+      </c>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
@@ -13790,7 +13947,7 @@
       <c r="BJ30" s="2"/>
     </row>
     <row r="31" spans="1:62" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="78"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="67" t="s">
         <v>6</v>
       </c>
@@ -13800,7 +13957,9 @@
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
       <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
+      <c r="I31" s="42">
+        <v>0.33333333333333331</v>
+      </c>
       <c r="J31" s="42"/>
       <c r="K31" s="42"/>
       <c r="L31" s="42"/>
@@ -13856,7 +14015,7 @@
       <c r="BJ31" s="42"/>
     </row>
     <row r="32" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A32" s="78"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
@@ -13866,7 +14025,9 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
+      <c r="I32" s="2" t="s">
+        <v>1085</v>
+      </c>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
       <c r="L32" s="2"/>
@@ -13922,7 +14083,7 @@
       <c r="BJ32" s="2"/>
     </row>
     <row r="33" spans="1:62" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="78"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="67" t="s">
         <v>3</v>
       </c>
@@ -13932,7 +14093,9 @@
       <c r="F33" s="42"/>
       <c r="G33" s="42"/>
       <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
+      <c r="I33" s="42">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="J33" s="42"/>
       <c r="K33" s="42"/>
       <c r="L33" s="42"/>
@@ -13988,7 +14151,7 @@
       <c r="BJ33" s="42"/>
     </row>
     <row r="34" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A34" s="78"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
@@ -13998,7 +14161,9 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
+      <c r="I34" s="2" t="s">
+        <v>1085</v>
+      </c>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
       <c r="L34" s="2"/>
@@ -14054,7 +14219,7 @@
       <c r="BJ34" s="2"/>
     </row>
     <row r="35" spans="1:62" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="78"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="67" t="s">
         <v>1</v>
       </c>
@@ -14064,7 +14229,9 @@
       <c r="F35" s="42"/>
       <c r="G35" s="42"/>
       <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
+      <c r="I35" s="42">
+        <v>0.20833333333333334</v>
+      </c>
       <c r="J35" s="42"/>
       <c r="K35" s="42"/>
       <c r="L35" s="42"/>
@@ -14120,7 +14287,7 @@
       <c r="BJ35" s="42"/>
     </row>
     <row r="36" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A36" s="78"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
@@ -14130,7 +14297,9 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
+      <c r="I36" s="2" t="s">
+        <v>992</v>
+      </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -14186,7 +14355,7 @@
       <c r="BJ36" s="2"/>
     </row>
     <row r="37" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A37" s="78"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
@@ -14196,7 +14365,9 @@
       <c r="F37" s="2"/>
       <c r="G37" s="46"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
+      <c r="I37" s="2" t="s">
+        <v>1090</v>
+      </c>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
@@ -14252,7 +14423,7 @@
       <c r="BJ37" s="2"/>
     </row>
     <row r="38" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A38" s="78"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="3" t="s">
         <v>926</v>
       </c>
@@ -14262,7 +14433,9 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="9" t="s">
+        <v>933</v>
+      </c>
       <c r="J38" s="9"/>
       <c r="K38" s="9"/>
       <c r="L38" s="9"/>
@@ -14318,7 +14491,7 @@
       <c r="BJ38" s="9"/>
     </row>
     <row r="39" spans="1:62" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="78"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="66" t="s">
         <v>10</v>
       </c>
@@ -14328,7 +14501,9 @@
       <c r="F39" s="2"/>
       <c r="G39" s="41"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
+      <c r="I39" s="2" t="s">
+        <v>1091</v>
+      </c>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
@@ -14384,7 +14559,7 @@
       <c r="BJ39" s="2"/>
     </row>
     <row r="40" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A40" s="78"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -14450,7 +14625,7 @@
       <c r="BJ40" s="2"/>
     </row>
     <row r="41" spans="1:62" x14ac:dyDescent="0.45">
-      <c r="A41" s="78"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -14542,7 +14717,7 @@
       </c>
       <c r="I42" s="7">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" s="7">
         <f t="shared" si="7"/>
@@ -14758,7 +14933,7 @@
       </c>
     </row>
     <row r="43" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="78">
+      <c r="A43" s="80">
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -14826,7 +15001,7 @@
       <c r="BJ43" s="2"/>
     </row>
     <row r="44" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="78"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -14892,7 +15067,7 @@
       <c r="BJ44" s="2"/>
     </row>
     <row r="45" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="78"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
@@ -14958,7 +15133,7 @@
       <c r="BJ45" s="2"/>
     </row>
     <row r="46" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="78"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
@@ -15024,7 +15199,7 @@
       <c r="BJ46" s="2"/>
     </row>
     <row r="47" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="78"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
@@ -15090,7 +15265,7 @@
       <c r="BJ47" s="2"/>
     </row>
     <row r="48" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="78"/>
+      <c r="A48" s="80"/>
       <c r="B48" s="3" t="s">
         <v>1</v>
       </c>
@@ -15156,7 +15331,7 @@
       <c r="BJ48" s="36"/>
     </row>
     <row r="49" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="78"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
@@ -15222,7 +15397,7 @@
       <c r="BJ49" s="2"/>
     </row>
     <row r="50" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="78"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
@@ -15288,7 +15463,7 @@
       <c r="BJ50" s="2"/>
     </row>
     <row r="51" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="78"/>
+      <c r="A51" s="80"/>
       <c r="B51" s="3" t="s">
         <v>926</v>
       </c>
@@ -15354,7 +15529,7 @@
       <c r="BJ51" s="9"/>
     </row>
     <row r="52" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="78"/>
+      <c r="A52" s="80"/>
       <c r="B52" s="70" t="s">
         <v>10</v>
       </c>
@@ -15420,7 +15595,7 @@
       <c r="BJ52" s="2"/>
     </row>
     <row r="53" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="78"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
@@ -15486,7 +15661,7 @@
       <c r="BJ53" s="2"/>
     </row>
     <row r="54" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="78"/>
+      <c r="A54" s="80"/>
       <c r="B54" s="3" t="s">
         <v>16</v>
       </c>
@@ -15794,7 +15969,7 @@
       </c>
     </row>
     <row r="56" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="78">
+      <c r="A56" s="80">
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -15862,7 +16037,7 @@
       <c r="BJ56" s="2"/>
     </row>
     <row r="57" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="78"/>
+      <c r="A57" s="80"/>
       <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
@@ -15928,7 +16103,7 @@
       <c r="BJ57" s="2"/>
     </row>
     <row r="58" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="78"/>
+      <c r="A58" s="80"/>
       <c r="B58" s="3" t="s">
         <v>5</v>
       </c>
@@ -15994,7 +16169,7 @@
       <c r="BJ58" s="2"/>
     </row>
     <row r="59" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="78"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
@@ -16060,7 +16235,7 @@
       <c r="BJ59" s="2"/>
     </row>
     <row r="60" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="78"/>
+      <c r="A60" s="80"/>
       <c r="B60" s="3" t="s">
         <v>4</v>
       </c>
@@ -16126,7 +16301,7 @@
       <c r="BJ60" s="2"/>
     </row>
     <row r="61" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="78"/>
+      <c r="A61" s="80"/>
       <c r="B61" s="3" t="s">
         <v>1</v>
       </c>
@@ -16192,7 +16367,7 @@
       <c r="BJ61" s="36"/>
     </row>
     <row r="62" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="78"/>
+      <c r="A62" s="80"/>
       <c r="B62" s="3" t="s">
         <v>8</v>
       </c>
@@ -16258,7 +16433,7 @@
       <c r="BJ62" s="2"/>
     </row>
     <row r="63" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="78"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="3" t="s">
         <v>9</v>
       </c>
@@ -16324,7 +16499,7 @@
       <c r="BJ63" s="2"/>
     </row>
     <row r="64" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="78"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="3" t="s">
         <v>926</v>
       </c>
@@ -16390,7 +16565,7 @@
       <c r="BJ64" s="9"/>
     </row>
     <row r="65" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="78"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="3" t="s">
         <v>10</v>
       </c>
@@ -16456,7 +16631,7 @@
       <c r="BJ65" s="2"/>
     </row>
     <row r="66" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="78"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="3" t="s">
         <v>15</v>
       </c>
@@ -16522,7 +16697,7 @@
       <c r="BJ66" s="2"/>
     </row>
     <row r="67" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="78"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="3" t="s">
         <v>16</v>
       </c>
@@ -16830,7 +17005,7 @@
       </c>
     </row>
     <row r="69" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="78">
+      <c r="A69" s="80">
         <v>6</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -16898,7 +17073,7 @@
       <c r="BJ69" s="2"/>
     </row>
     <row r="70" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="78"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
@@ -16964,7 +17139,7 @@
       <c r="BJ70" s="2"/>
     </row>
     <row r="71" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="78"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="3" t="s">
         <v>5</v>
       </c>
@@ -17030,7 +17205,7 @@
       <c r="BJ71" s="2"/>
     </row>
     <row r="72" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="78"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="3" t="s">
         <v>3</v>
       </c>
@@ -17096,7 +17271,7 @@
       <c r="BJ72" s="2"/>
     </row>
     <row r="73" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="78"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="3" t="s">
         <v>4</v>
       </c>
@@ -17162,7 +17337,7 @@
       <c r="BJ73" s="2"/>
     </row>
     <row r="74" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="78"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="3" t="s">
         <v>1</v>
       </c>
@@ -17228,7 +17403,7 @@
       <c r="BJ74" s="36"/>
     </row>
     <row r="75" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="78"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
@@ -17294,7 +17469,7 @@
       <c r="BJ75" s="2"/>
     </row>
     <row r="76" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="78"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="3" t="s">
         <v>9</v>
       </c>
@@ -17360,7 +17535,7 @@
       <c r="BJ76" s="2"/>
     </row>
     <row r="77" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="78"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="3" t="s">
         <v>926</v>
       </c>
@@ -17426,7 +17601,7 @@
       <c r="BJ77" s="9"/>
     </row>
     <row r="78" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="78"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="3" t="s">
         <v>10</v>
       </c>
@@ -17492,7 +17667,7 @@
       <c r="BJ78" s="2"/>
     </row>
     <row r="79" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="78"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="3" t="s">
         <v>15</v>
       </c>
@@ -17558,7 +17733,7 @@
       <c r="BJ79" s="2"/>
     </row>
     <row r="80" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="78"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="3" t="s">
         <v>16</v>
       </c>
@@ -17866,7 +18041,7 @@
       </c>
     </row>
     <row r="82" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="78">
+      <c r="A82" s="80">
         <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -17934,7 +18109,7 @@
       <c r="BJ82" s="2"/>
     </row>
     <row r="83" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="78"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="3" t="s">
         <v>6</v>
       </c>
@@ -18000,7 +18175,7 @@
       <c r="BJ83" s="2"/>
     </row>
     <row r="84" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="78"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="3" t="s">
         <v>5</v>
       </c>
@@ -18066,7 +18241,7 @@
       <c r="BJ84" s="2"/>
     </row>
     <row r="85" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="78"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="3" t="s">
         <v>3</v>
       </c>
@@ -18132,7 +18307,7 @@
       <c r="BJ85" s="2"/>
     </row>
     <row r="86" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="78"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="3" t="s">
         <v>4</v>
       </c>
@@ -18198,7 +18373,7 @@
       <c r="BJ86" s="2"/>
     </row>
     <row r="87" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="78"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="3" t="s">
         <v>1</v>
       </c>
@@ -18264,7 +18439,7 @@
       <c r="BJ87" s="36"/>
     </row>
     <row r="88" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="78"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="3" t="s">
         <v>8</v>
       </c>
@@ -18330,7 +18505,7 @@
       <c r="BJ88" s="2"/>
     </row>
     <row r="89" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="78"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="3" t="s">
         <v>9</v>
       </c>
@@ -18396,7 +18571,7 @@
       <c r="BJ89" s="2"/>
     </row>
     <row r="90" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="78"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="3" t="s">
         <v>926</v>
       </c>
@@ -18462,7 +18637,7 @@
       <c r="BJ90" s="9"/>
     </row>
     <row r="91" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="78"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="3" t="s">
         <v>10</v>
       </c>
@@ -18528,7 +18703,7 @@
       <c r="BJ91" s="2"/>
     </row>
     <row r="92" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="78"/>
+      <c r="A92" s="80"/>
       <c r="B92" s="3" t="s">
         <v>15</v>
       </c>
@@ -18594,7 +18769,7 @@
       <c r="BJ92" s="2"/>
     </row>
     <row r="93" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="78"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="3" t="s">
         <v>16</v>
       </c>
@@ -18902,7 +19077,7 @@
       </c>
     </row>
     <row r="95" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="78">
+      <c r="A95" s="80">
         <v>8</v>
       </c>
       <c r="B95" s="3" t="s">
@@ -18970,7 +19145,7 @@
       <c r="BJ95" s="2"/>
     </row>
     <row r="96" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="78"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
@@ -19036,7 +19211,7 @@
       <c r="BJ96" s="2"/>
     </row>
     <row r="97" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="78"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -19102,7 +19277,7 @@
       <c r="BJ97" s="2"/>
     </row>
     <row r="98" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="78"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="3" t="s">
         <v>3</v>
       </c>
@@ -19168,7 +19343,7 @@
       <c r="BJ98" s="2"/>
     </row>
     <row r="99" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="78"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="3" t="s">
         <v>4</v>
       </c>
@@ -19234,7 +19409,7 @@
       <c r="BJ99" s="2"/>
     </row>
     <row r="100" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="78"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
@@ -19300,7 +19475,7 @@
       <c r="BJ100" s="36"/>
     </row>
     <row r="101" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="78"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="3" t="s">
         <v>8</v>
       </c>
@@ -19366,7 +19541,7 @@
       <c r="BJ101" s="2"/>
     </row>
     <row r="102" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="78"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="3" t="s">
         <v>9</v>
       </c>
@@ -19432,7 +19607,7 @@
       <c r="BJ102" s="2"/>
     </row>
     <row r="103" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="78"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="3" t="s">
         <v>926</v>
       </c>
@@ -19498,7 +19673,7 @@
       <c r="BJ103" s="9"/>
     </row>
     <row r="104" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="78"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="3" t="s">
         <v>10</v>
       </c>
@@ -19564,7 +19739,7 @@
       <c r="BJ104" s="2"/>
     </row>
     <row r="105" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="78"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="3" t="s">
         <v>15</v>
       </c>
@@ -19630,7 +19805,7 @@
       <c r="BJ105" s="2"/>
     </row>
     <row r="106" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="78"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
@@ -19938,7 +20113,7 @@
       </c>
     </row>
     <row r="108" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="78">
+      <c r="A108" s="80">
         <v>9</v>
       </c>
       <c r="B108" s="3" t="s">
@@ -20006,7 +20181,7 @@
       <c r="BJ108" s="2"/>
     </row>
     <row r="109" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="78"/>
+      <c r="A109" s="80"/>
       <c r="B109" s="3" t="s">
         <v>6</v>
       </c>
@@ -20072,7 +20247,7 @@
       <c r="BJ109" s="2"/>
     </row>
     <row r="110" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="78"/>
+      <c r="A110" s="80"/>
       <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
@@ -20138,7 +20313,7 @@
       <c r="BJ110" s="2"/>
     </row>
     <row r="111" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="78"/>
+      <c r="A111" s="80"/>
       <c r="B111" s="3" t="s">
         <v>3</v>
       </c>
@@ -20204,7 +20379,7 @@
       <c r="BJ111" s="2"/>
     </row>
     <row r="112" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="78"/>
+      <c r="A112" s="80"/>
       <c r="B112" s="3" t="s">
         <v>4</v>
       </c>
@@ -20270,7 +20445,7 @@
       <c r="BJ112" s="2"/>
     </row>
     <row r="113" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="78"/>
+      <c r="A113" s="80"/>
       <c r="B113" s="3" t="s">
         <v>1</v>
       </c>
@@ -20336,7 +20511,7 @@
       <c r="BJ113" s="36"/>
     </row>
     <row r="114" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="78"/>
+      <c r="A114" s="80"/>
       <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
@@ -20402,7 +20577,7 @@
       <c r="BJ114" s="2"/>
     </row>
     <row r="115" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="78"/>
+      <c r="A115" s="80"/>
       <c r="B115" s="3" t="s">
         <v>9</v>
       </c>
@@ -20468,7 +20643,7 @@
       <c r="BJ115" s="2"/>
     </row>
     <row r="116" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="78"/>
+      <c r="A116" s="80"/>
       <c r="B116" s="3" t="s">
         <v>926</v>
       </c>
@@ -20534,7 +20709,7 @@
       <c r="BJ116" s="9"/>
     </row>
     <row r="117" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="78"/>
+      <c r="A117" s="80"/>
       <c r="B117" s="3" t="s">
         <v>10</v>
       </c>
@@ -20600,7 +20775,7 @@
       <c r="BJ117" s="2"/>
     </row>
     <row r="118" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="78"/>
+      <c r="A118" s="80"/>
       <c r="B118" s="3" t="s">
         <v>15</v>
       </c>
@@ -20666,7 +20841,7 @@
       <c r="BJ118" s="2"/>
     </row>
     <row r="119" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="78"/>
+      <c r="A119" s="80"/>
       <c r="B119" s="3" t="s">
         <v>16</v>
       </c>
@@ -20974,7 +21149,7 @@
       </c>
     </row>
     <row r="121" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="78">
+      <c r="A121" s="80">
         <v>10</v>
       </c>
       <c r="B121" s="3" t="s">
@@ -21042,7 +21217,7 @@
       <c r="BJ121" s="2"/>
     </row>
     <row r="122" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="78"/>
+      <c r="A122" s="80"/>
       <c r="B122" s="3" t="s">
         <v>6</v>
       </c>
@@ -21108,7 +21283,7 @@
       <c r="BJ122" s="2"/>
     </row>
     <row r="123" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="78"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="3" t="s">
         <v>5</v>
       </c>
@@ -21174,7 +21349,7 @@
       <c r="BJ123" s="2"/>
     </row>
     <row r="124" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="78"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="3" t="s">
         <v>3</v>
       </c>
@@ -21240,7 +21415,7 @@
       <c r="BJ124" s="2"/>
     </row>
     <row r="125" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="78"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="3" t="s">
         <v>4</v>
       </c>
@@ -21306,7 +21481,7 @@
       <c r="BJ125" s="2"/>
     </row>
     <row r="126" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="78"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="3" t="s">
         <v>1</v>
       </c>
@@ -21372,7 +21547,7 @@
       <c r="BJ126" s="37"/>
     </row>
     <row r="127" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="78"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="3" t="s">
         <v>8</v>
       </c>
@@ -21438,7 +21613,7 @@
       <c r="BJ127" s="2"/>
     </row>
     <row r="128" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="78"/>
+      <c r="A128" s="80"/>
       <c r="B128" s="3" t="s">
         <v>9</v>
       </c>
@@ -21504,7 +21679,7 @@
       <c r="BJ128" s="2"/>
     </row>
     <row r="129" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="78"/>
+      <c r="A129" s="80"/>
       <c r="B129" s="3" t="s">
         <v>926</v>
       </c>
@@ -21570,7 +21745,7 @@
       <c r="BJ129" s="9"/>
     </row>
     <row r="130" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="78"/>
+      <c r="A130" s="80"/>
       <c r="B130" s="3" t="s">
         <v>10</v>
       </c>
@@ -21636,7 +21811,7 @@
       <c r="BJ130" s="2"/>
     </row>
     <row r="131" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="78"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="3" t="s">
         <v>15</v>
       </c>
@@ -21702,7 +21877,7 @@
       <c r="BJ131" s="2"/>
     </row>
     <row r="132" spans="1:62" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="78"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="3" t="s">
         <v>16</v>
       </c>
@@ -22077,7 +22252,7 @@
       </c>
       <c r="I135" s="8">
         <f t="shared" si="39"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J135" s="8">
         <f t="shared" si="39"/>
@@ -22113,7 +22288,7 @@
       </c>
       <c r="R135" s="8">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S135" s="8">
         <f t="shared" si="39"/>
@@ -22121,7 +22296,7 @@
       </c>
       <c r="T135" s="8">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U135" s="8">
         <f t="shared" si="39"/>
@@ -22322,7 +22497,7 @@
       </c>
       <c r="I136" s="17">
         <f t="shared" si="41"/>
-        <v>0.1423611111111111</v>
+        <v>0.35069444444444442</v>
       </c>
       <c r="J136" s="17">
         <f t="shared" si="41"/>
@@ -22358,7 +22533,7 @@
       </c>
       <c r="R136" s="17">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="S136" s="17">
         <f t="shared" si="41"/>
@@ -22366,15 +22541,15 @@
       </c>
       <c r="T136" s="17">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="U136" s="17">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="V136" s="17">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="W136" s="17">
         <f t="shared" si="41"/>
@@ -22635,7 +22810,7 @@
       </c>
       <c r="I138" s="50">
         <f t="shared" si="43"/>
-        <v>7.1180555555555552E-2</v>
+        <v>0.11689814814814814</v>
       </c>
       <c r="J138" s="50">
         <f t="shared" si="43"/>
@@ -22669,25 +22844,25 @@
         <f t="shared" si="43"/>
         <v>6.9444444444444434E-2</v>
       </c>
-      <c r="R138" s="50" t="e">
+      <c r="R138" s="50">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>4.8611111111111112E-2</v>
       </c>
       <c r="S138" s="50">
         <f t="shared" si="43"/>
         <v>0.125</v>
       </c>
-      <c r="T138" s="50" t="e">
+      <c r="T138" s="50">
         <f t="shared" si="43"/>
-        <v>#DIV/0!</v>
+        <v>0.29166666666666669</v>
       </c>
       <c r="U138" s="50">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>4.1666666666666664E-2</v>
       </c>
       <c r="V138" s="50">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>5.2083333333333336E-2</v>
       </c>
       <c r="W138" s="50">
         <f t="shared" si="43"/>
@@ -22880,7 +23055,7 @@
       </c>
       <c r="I139" s="5">
         <f t="shared" si="44"/>
-        <v>50.928819444444443</v>
+        <v>33.883101851851855</v>
       </c>
       <c r="J139" s="5">
         <f t="shared" si="44"/>
@@ -22914,25 +23089,25 @@
         <f t="shared" si="44"/>
         <v>101.93055555555556</v>
       </c>
-      <c r="R139" s="5" t="e">
+      <c r="R139" s="5">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>101.95138888888889</v>
       </c>
       <c r="S139" s="5">
         <f t="shared" si="44"/>
         <v>101.875</v>
       </c>
-      <c r="T139" s="5" t="e">
+      <c r="T139" s="5">
         <f t="shared" si="44"/>
-        <v>#DIV/0!</v>
+        <v>101.70833333333333</v>
       </c>
       <c r="U139" s="5">
         <f t="shared" si="44"/>
-        <v>102</v>
+        <v>101.95833333333333</v>
       </c>
       <c r="V139" s="5">
         <f t="shared" si="44"/>
-        <v>102</v>
+        <v>101.94791666666667</v>
       </c>
       <c r="W139" s="5">
         <f t="shared" si="44"/>
@@ -23102,7 +23277,7 @@
       </c>
       <c r="C141" s="52">
         <f>SUM(C136:BJ136)</f>
-        <v>7.8819444444444446</v>
+        <v>8.5243055555555554</v>
       </c>
     </row>
     <row r="143" spans="1:62" ht="19.5" x14ac:dyDescent="0.45">
@@ -23119,7 +23294,7 @@
       </c>
       <c r="C144" s="55">
         <f>SUMIF($C$12:$BN$12,B144,$C$9:$BN$9)+SUMIF($C$25:$BN$25,B144,$C$22:$BN$22)+SUMIF($C$38:$BN$38,B144,$C$35:$BN$35)+SUMIF($C$51:$BN$51,B144,$C$48:$BN$48)+SUMIF($C$64:$BN$64,B144,$C$61:$BN$61)+SUMIF($C$77:$BN$77,B144,$C$74:$BN$74)+SUMIF($C$90:$BN$90,B144,$C$87:$BN$87)+SUMIF($C$103:$BN$103,B144,$C$100:$BN$100)+SUMIF($C$116:$BN$116,B144,$C$113:$BN$113)+SUMIF($C$129:$BN$129,B144,$C$126:$BN$126)</f>
-        <v>7.6805555555555562</v>
+        <v>8.0138888888888911</v>
       </c>
     </row>
     <row r="145" spans="2:3" ht="22.5" x14ac:dyDescent="0.45">
@@ -23128,7 +23303,7 @@
       </c>
       <c r="C145" s="55">
         <f t="shared" ref="C145:C151" si="45">SUMIF($C$12:$BN$12,B145,$C$9:$BN$9)+SUMIF($C$25:$BN$25,B145,$C$22:$BN$22)+SUMIF($C$38:$BN$38,B145,$C$35:$BN$35)+SUMIF($C$51:$BN$51,B145,$C$48:$BN$48)+SUMIF($C$64:$BN$64,B145,$C$61:$BN$61)+SUMIF($C$77:$BN$77,B145,$C$74:$BN$74)+SUMIF($C$90:$BN$90,B145,$C$87:$BN$87)+SUMIF($C$103:$BN$103,B145,$C$100:$BN$100)+SUMIF($C$116:$BN$116,B145,$C$113:$BN$113)+SUMIF($C$129:$BN$129,B145,$C$126:$BN$126)</f>
-        <v>9.0277777777777776E-2</v>
+        <v>0.34722222222222221</v>
       </c>
     </row>
     <row r="146" spans="2:3" ht="22.5" x14ac:dyDescent="0.45">
@@ -23137,7 +23312,7 @@
       </c>
       <c r="C146" s="55">
         <f t="shared" si="45"/>
-        <v>0.1111111111111111</v>
+        <v>0.16319444444444445</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="22.5" x14ac:dyDescent="0.45">
@@ -23188,7 +23363,7 @@
     <row r="152" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C152" s="56">
         <f>SUM(C144:C151)</f>
-        <v>7.8819444444444446</v>
+        <v>8.5243055555555571</v>
       </c>
     </row>
   </sheetData>
@@ -23291,10 +23466,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="35">
         <v>1</v>
       </c>
@@ -23405,7 +23580,7 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A2" s="78">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -23553,7 +23728,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -23597,7 +23772,7 @@
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="78"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -23641,7 +23816,7 @@
       <c r="AL4" s="2"/>
     </row>
     <row r="5" spans="1:38" s="68" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="78"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="67" t="s">
         <v>6</v>
       </c>
@@ -23685,7 +23860,7 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="78"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -23729,7 +23904,7 @@
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:38" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A7" s="78"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="67" t="s">
         <v>3</v>
       </c>
@@ -23773,7 +23948,7 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A8" s="78"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -23817,7 +23992,7 @@
       <c r="AL8" s="2"/>
     </row>
     <row r="9" spans="1:38" s="68" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A9" s="78"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="67" t="s">
         <v>1</v>
       </c>
@@ -23861,7 +24036,7 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A10" s="78"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -23905,7 +24080,7 @@
       <c r="AL10" s="2"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A11" s="78"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -23949,7 +24124,7 @@
       <c r="AL11" s="2"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A12" s="78"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="3" t="s">
         <v>926</v>
       </c>
@@ -23993,7 +24168,7 @@
       <c r="AL12" s="59"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A13" s="78"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -24037,7 +24212,7 @@
       <c r="AL13" s="2"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A14" s="78"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -24079,7 +24254,7 @@
       <c r="AL14" s="2"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A15" s="78"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -24267,7 +24442,7 @@
       </c>
     </row>
     <row r="17" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="78">
+      <c r="A17" s="80">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -24311,7 +24486,7 @@
       <c r="AL17" s="2"/>
     </row>
     <row r="18" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="78"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -24353,7 +24528,7 @@
       <c r="AL18" s="2"/>
     </row>
     <row r="19" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="78"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -24395,7 +24570,7 @@
       <c r="AL19" s="2"/>
     </row>
     <row r="20" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="78"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
@@ -24437,7 +24612,7 @@
       <c r="AL20" s="2"/>
     </row>
     <row r="21" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="78"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
@@ -24479,7 +24654,7 @@
       <c r="AL21" s="2"/>
     </row>
     <row r="22" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="78"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
@@ -24521,7 +24696,7 @@
       <c r="AL22" s="36"/>
     </row>
     <row r="23" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="78"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
@@ -24563,7 +24738,7 @@
       <c r="AL23" s="2"/>
     </row>
     <row r="24" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="78"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
@@ -24605,7 +24780,7 @@
       <c r="AL24" s="2"/>
     </row>
     <row r="25" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="78"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="3" t="s">
         <v>926</v>
       </c>
@@ -24647,7 +24822,7 @@
       <c r="AL25" s="9"/>
     </row>
     <row r="26" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A26" s="78"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
@@ -24689,7 +24864,7 @@
       <c r="AL26" s="2"/>
     </row>
     <row r="27" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="78"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
@@ -24731,7 +24906,7 @@
       <c r="AL27" s="2"/>
     </row>
     <row r="28" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="78"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -24919,7 +25094,7 @@
       </c>
     </row>
     <row r="30" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="78">
+      <c r="A30" s="80">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -24963,7 +25138,7 @@
       <c r="AL30" s="2"/>
     </row>
     <row r="31" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="78"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
@@ -25005,7 +25180,7 @@
       <c r="AL31" s="2"/>
     </row>
     <row r="32" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="78"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
@@ -25047,7 +25222,7 @@
       <c r="AL32" s="2"/>
     </row>
     <row r="33" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="78"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
@@ -25089,7 +25264,7 @@
       <c r="AL33" s="2"/>
     </row>
     <row r="34" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="78"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
@@ -25131,7 +25306,7 @@
       <c r="AL34" s="2"/>
     </row>
     <row r="35" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="78"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
@@ -25173,7 +25348,7 @@
       <c r="AL35" s="36"/>
     </row>
     <row r="36" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="78"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
@@ -25215,7 +25390,7 @@
       <c r="AL36" s="2"/>
     </row>
     <row r="37" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="78"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
@@ -25257,7 +25432,7 @@
       <c r="AL37" s="2"/>
     </row>
     <row r="38" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="78"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="3" t="s">
         <v>926</v>
       </c>
@@ -25299,7 +25474,7 @@
       <c r="AL38" s="9"/>
     </row>
     <row r="39" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="78"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
@@ -25341,7 +25516,7 @@
       <c r="AL39" s="2"/>
     </row>
     <row r="40" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="78"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -25383,7 +25558,7 @@
       <c r="AL40" s="2"/>
     </row>
     <row r="41" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="78"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -25571,7 +25746,7 @@
       </c>
     </row>
     <row r="43" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="78">
+      <c r="A43" s="80">
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -25615,7 +25790,7 @@
       <c r="AL43" s="2"/>
     </row>
     <row r="44" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="78"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -25657,7 +25832,7 @@
       <c r="AL44" s="2"/>
     </row>
     <row r="45" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="78"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
@@ -25699,7 +25874,7 @@
       <c r="AL45" s="2"/>
     </row>
     <row r="46" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="78"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
@@ -25741,7 +25916,7 @@
       <c r="AL46" s="2"/>
     </row>
     <row r="47" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="78"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
@@ -25783,7 +25958,7 @@
       <c r="AL47" s="2"/>
     </row>
     <row r="48" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="78"/>
+      <c r="A48" s="80"/>
       <c r="B48" s="3" t="s">
         <v>1</v>
       </c>
@@ -25825,7 +26000,7 @@
       <c r="AL48" s="36"/>
     </row>
     <row r="49" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="78"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
@@ -25867,7 +26042,7 @@
       <c r="AL49" s="2"/>
     </row>
     <row r="50" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="78"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
@@ -25909,7 +26084,7 @@
       <c r="AL50" s="2"/>
     </row>
     <row r="51" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="78"/>
+      <c r="A51" s="80"/>
       <c r="B51" s="3" t="s">
         <v>926</v>
       </c>
@@ -25951,7 +26126,7 @@
       <c r="AL51" s="9"/>
     </row>
     <row r="52" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="78"/>
+      <c r="A52" s="80"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
       </c>
@@ -25993,7 +26168,7 @@
       <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="78"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
@@ -26035,7 +26210,7 @@
       <c r="AL53" s="2"/>
     </row>
     <row r="54" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="78"/>
+      <c r="A54" s="80"/>
       <c r="B54" s="3" t="s">
         <v>16</v>
       </c>
@@ -26223,7 +26398,7 @@
       </c>
     </row>
     <row r="56" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="78"/>
+      <c r="A56" s="80"/>
       <c r="B56" s="3" t="s">
         <v>7</v>
       </c>
@@ -26265,7 +26440,7 @@
       <c r="AL56" s="2"/>
     </row>
     <row r="57" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="78"/>
+      <c r="A57" s="80"/>
       <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
@@ -26307,7 +26482,7 @@
       <c r="AL57" s="2"/>
     </row>
     <row r="58" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="78"/>
+      <c r="A58" s="80"/>
       <c r="B58" s="3" t="s">
         <v>5</v>
       </c>
@@ -26349,7 +26524,7 @@
       <c r="AL58" s="2"/>
     </row>
     <row r="59" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="78"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
@@ -26391,7 +26566,7 @@
       <c r="AL59" s="2"/>
     </row>
     <row r="60" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="78"/>
+      <c r="A60" s="80"/>
       <c r="B60" s="3" t="s">
         <v>4</v>
       </c>
@@ -26433,7 +26608,7 @@
       <c r="AL60" s="2"/>
     </row>
     <row r="61" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="78"/>
+      <c r="A61" s="80"/>
       <c r="B61" s="3" t="s">
         <v>1</v>
       </c>
@@ -26475,7 +26650,7 @@
       <c r="AL61" s="36"/>
     </row>
     <row r="62" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="78"/>
+      <c r="A62" s="80"/>
       <c r="B62" s="3" t="s">
         <v>8</v>
       </c>
@@ -26517,7 +26692,7 @@
       <c r="AL62" s="2"/>
     </row>
     <row r="63" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="78"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="3" t="s">
         <v>9</v>
       </c>
@@ -26559,7 +26734,7 @@
       <c r="AL63" s="2"/>
     </row>
     <row r="64" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="78"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="3" t="s">
         <v>926</v>
       </c>
@@ -26601,7 +26776,7 @@
       <c r="AL64" s="9"/>
     </row>
     <row r="65" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="78"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="3" t="s">
         <v>10</v>
       </c>
@@ -26643,7 +26818,7 @@
       <c r="AL65" s="2"/>
     </row>
     <row r="66" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="78"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="3" t="s">
         <v>15</v>
       </c>
@@ -26685,7 +26860,7 @@
       <c r="AL66" s="2"/>
     </row>
     <row r="67" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="78"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="3" t="s">
         <v>16</v>
       </c>
@@ -26873,7 +27048,7 @@
       </c>
     </row>
     <row r="69" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="78"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="3" t="s">
         <v>7</v>
       </c>
@@ -26915,7 +27090,7 @@
       <c r="AL69" s="2"/>
     </row>
     <row r="70" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="78"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
@@ -26957,7 +27132,7 @@
       <c r="AL70" s="2"/>
     </row>
     <row r="71" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="78"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="3" t="s">
         <v>5</v>
       </c>
@@ -26999,7 +27174,7 @@
       <c r="AL71" s="2"/>
     </row>
     <row r="72" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="78"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="3" t="s">
         <v>3</v>
       </c>
@@ -27041,7 +27216,7 @@
       <c r="AL72" s="2"/>
     </row>
     <row r="73" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="78"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="3" t="s">
         <v>4</v>
       </c>
@@ -27083,7 +27258,7 @@
       <c r="AL73" s="2"/>
     </row>
     <row r="74" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="78"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="3" t="s">
         <v>1</v>
       </c>
@@ -27125,7 +27300,7 @@
       <c r="AL74" s="36"/>
     </row>
     <row r="75" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="78"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
@@ -27167,7 +27342,7 @@
       <c r="AL75" s="2"/>
     </row>
     <row r="76" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="78"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="3" t="s">
         <v>9</v>
       </c>
@@ -27209,7 +27384,7 @@
       <c r="AL76" s="2"/>
     </row>
     <row r="77" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="78"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="3" t="s">
         <v>926</v>
       </c>
@@ -27251,7 +27426,7 @@
       <c r="AL77" s="9"/>
     </row>
     <row r="78" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="78"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="3" t="s">
         <v>10</v>
       </c>
@@ -27293,7 +27468,7 @@
       <c r="AL78" s="2"/>
     </row>
     <row r="79" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="78"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="3" t="s">
         <v>15</v>
       </c>
@@ -27335,7 +27510,7 @@
       <c r="AL79" s="2"/>
     </row>
     <row r="80" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="78"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="3" t="s">
         <v>16</v>
       </c>
@@ -27523,7 +27698,7 @@
       </c>
     </row>
     <row r="82" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="78"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="3" t="s">
         <v>7</v>
       </c>
@@ -27565,7 +27740,7 @@
       <c r="AL82" s="2"/>
     </row>
     <row r="83" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="78"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="3" t="s">
         <v>6</v>
       </c>
@@ -27607,7 +27782,7 @@
       <c r="AL83" s="2"/>
     </row>
     <row r="84" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="78"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="3" t="s">
         <v>5</v>
       </c>
@@ -27649,7 +27824,7 @@
       <c r="AL84" s="2"/>
     </row>
     <row r="85" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="78"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="3" t="s">
         <v>3</v>
       </c>
@@ -27691,7 +27866,7 @@
       <c r="AL85" s="2"/>
     </row>
     <row r="86" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="78"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="3" t="s">
         <v>4</v>
       </c>
@@ -27733,7 +27908,7 @@
       <c r="AL86" s="2"/>
     </row>
     <row r="87" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="78"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="3" t="s">
         <v>1</v>
       </c>
@@ -27775,7 +27950,7 @@
       <c r="AL87" s="36"/>
     </row>
     <row r="88" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="78"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="3" t="s">
         <v>8</v>
       </c>
@@ -27817,7 +27992,7 @@
       <c r="AL88" s="2"/>
     </row>
     <row r="89" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="78"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="3" t="s">
         <v>9</v>
       </c>
@@ -27859,7 +28034,7 @@
       <c r="AL89" s="2"/>
     </row>
     <row r="90" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="78"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="3" t="s">
         <v>926</v>
       </c>
@@ -27901,7 +28076,7 @@
       <c r="AL90" s="9"/>
     </row>
     <row r="91" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="78"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="3" t="s">
         <v>10</v>
       </c>
@@ -27943,7 +28118,7 @@
       <c r="AL91" s="2"/>
     </row>
     <row r="92" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="78"/>
+      <c r="A92" s="80"/>
       <c r="B92" s="3" t="s">
         <v>15</v>
       </c>
@@ -27985,7 +28160,7 @@
       <c r="AL92" s="2"/>
     </row>
     <row r="93" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="78"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="3" t="s">
         <v>16</v>
       </c>
@@ -28173,7 +28348,7 @@
       </c>
     </row>
     <row r="95" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="78"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
@@ -28215,7 +28390,7 @@
       <c r="AL95" s="2"/>
     </row>
     <row r="96" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="78"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
@@ -28257,7 +28432,7 @@
       <c r="AL96" s="2"/>
     </row>
     <row r="97" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="78"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -28299,7 +28474,7 @@
       <c r="AL97" s="2"/>
     </row>
     <row r="98" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="78"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="3" t="s">
         <v>3</v>
       </c>
@@ -28341,7 +28516,7 @@
       <c r="AL98" s="2"/>
     </row>
     <row r="99" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="78"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="3" t="s">
         <v>4</v>
       </c>
@@ -28383,7 +28558,7 @@
       <c r="AL99" s="2"/>
     </row>
     <row r="100" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="78"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
@@ -28425,7 +28600,7 @@
       <c r="AL100" s="36"/>
     </row>
     <row r="101" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="78"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="3" t="s">
         <v>8</v>
       </c>
@@ -28467,7 +28642,7 @@
       <c r="AL101" s="2"/>
     </row>
     <row r="102" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="78"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="3" t="s">
         <v>9</v>
       </c>
@@ -28509,7 +28684,7 @@
       <c r="AL102" s="2"/>
     </row>
     <row r="103" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="78"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="3" t="s">
         <v>926</v>
       </c>
@@ -28551,7 +28726,7 @@
       <c r="AL103" s="9"/>
     </row>
     <row r="104" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="78"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="3" t="s">
         <v>10</v>
       </c>
@@ -28593,7 +28768,7 @@
       <c r="AL104" s="2"/>
     </row>
     <row r="105" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="78"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="3" t="s">
         <v>15</v>
       </c>
@@ -28635,7 +28810,7 @@
       <c r="AL105" s="2"/>
     </row>
     <row r="106" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="78"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
@@ -28823,7 +28998,7 @@
       </c>
     </row>
     <row r="108" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="78"/>
+      <c r="A108" s="80"/>
       <c r="B108" s="3" t="s">
         <v>7</v>
       </c>
@@ -28865,7 +29040,7 @@
       <c r="AL108" s="2"/>
     </row>
     <row r="109" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="78"/>
+      <c r="A109" s="80"/>
       <c r="B109" s="3" t="s">
         <v>6</v>
       </c>
@@ -28907,7 +29082,7 @@
       <c r="AL109" s="2"/>
     </row>
     <row r="110" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="78"/>
+      <c r="A110" s="80"/>
       <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
@@ -28949,7 +29124,7 @@
       <c r="AL110" s="2"/>
     </row>
     <row r="111" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="78"/>
+      <c r="A111" s="80"/>
       <c r="B111" s="3" t="s">
         <v>3</v>
       </c>
@@ -28991,7 +29166,7 @@
       <c r="AL111" s="2"/>
     </row>
     <row r="112" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="78"/>
+      <c r="A112" s="80"/>
       <c r="B112" s="3" t="s">
         <v>4</v>
       </c>
@@ -29033,7 +29208,7 @@
       <c r="AL112" s="2"/>
     </row>
     <row r="113" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="78"/>
+      <c r="A113" s="80"/>
       <c r="B113" s="3" t="s">
         <v>1</v>
       </c>
@@ -29075,7 +29250,7 @@
       <c r="AL113" s="36"/>
     </row>
     <row r="114" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="78"/>
+      <c r="A114" s="80"/>
       <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
@@ -29117,7 +29292,7 @@
       <c r="AL114" s="2"/>
     </row>
     <row r="115" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="78"/>
+      <c r="A115" s="80"/>
       <c r="B115" s="3" t="s">
         <v>9</v>
       </c>
@@ -29159,7 +29334,7 @@
       <c r="AL115" s="2"/>
     </row>
     <row r="116" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="78"/>
+      <c r="A116" s="80"/>
       <c r="B116" s="3" t="s">
         <v>926</v>
       </c>
@@ -29201,7 +29376,7 @@
       <c r="AL116" s="9"/>
     </row>
     <row r="117" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="78"/>
+      <c r="A117" s="80"/>
       <c r="B117" s="3" t="s">
         <v>10</v>
       </c>
@@ -29243,7 +29418,7 @@
       <c r="AL117" s="2"/>
     </row>
     <row r="118" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="78"/>
+      <c r="A118" s="80"/>
       <c r="B118" s="3" t="s">
         <v>15</v>
       </c>
@@ -29285,7 +29460,7 @@
       <c r="AL118" s="2"/>
     </row>
     <row r="119" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="78"/>
+      <c r="A119" s="80"/>
       <c r="B119" s="3" t="s">
         <v>16</v>
       </c>
@@ -29473,7 +29648,7 @@
       </c>
     </row>
     <row r="121" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="78"/>
+      <c r="A121" s="80"/>
       <c r="B121" s="3" t="s">
         <v>7</v>
       </c>
@@ -29515,7 +29690,7 @@
       <c r="AL121" s="2"/>
     </row>
     <row r="122" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="78"/>
+      <c r="A122" s="80"/>
       <c r="B122" s="3" t="s">
         <v>6</v>
       </c>
@@ -29557,7 +29732,7 @@
       <c r="AL122" s="2"/>
     </row>
     <row r="123" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="78"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="3" t="s">
         <v>5</v>
       </c>
@@ -29599,7 +29774,7 @@
       <c r="AL123" s="2"/>
     </row>
     <row r="124" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="78"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="3" t="s">
         <v>3</v>
       </c>
@@ -29641,7 +29816,7 @@
       <c r="AL124" s="2"/>
     </row>
     <row r="125" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="78"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="3" t="s">
         <v>4</v>
       </c>
@@ -29683,7 +29858,7 @@
       <c r="AL125" s="2"/>
     </row>
     <row r="126" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="78"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="3" t="s">
         <v>1</v>
       </c>
@@ -29725,7 +29900,7 @@
       <c r="AL126" s="37"/>
     </row>
     <row r="127" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="78"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="3" t="s">
         <v>8</v>
       </c>
@@ -29767,7 +29942,7 @@
       <c r="AL127" s="2"/>
     </row>
     <row r="128" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="78"/>
+      <c r="A128" s="80"/>
       <c r="B128" s="3" t="s">
         <v>9</v>
       </c>
@@ -29809,7 +29984,7 @@
       <c r="AL128" s="2"/>
     </row>
     <row r="129" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="78"/>
+      <c r="A129" s="80"/>
       <c r="B129" s="3" t="s">
         <v>926</v>
       </c>
@@ -29851,7 +30026,7 @@
       <c r="AL129" s="9"/>
     </row>
     <row r="130" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="78"/>
+      <c r="A130" s="80"/>
       <c r="B130" s="3" t="s">
         <v>10</v>
       </c>
@@ -29893,7 +30068,7 @@
       <c r="AL130" s="2"/>
     </row>
     <row r="131" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="78"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="3" t="s">
         <v>15</v>
       </c>
@@ -29935,7 +30110,7 @@
       <c r="AL131" s="2"/>
     </row>
     <row r="132" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="78"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="3" t="s">
         <v>16</v>
       </c>
@@ -30874,17 +31049,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A69:A80"/>
-    <mergeCell ref="A82:A93"/>
-    <mergeCell ref="A95:A106"/>
-    <mergeCell ref="A108:A119"/>
-    <mergeCell ref="A121:A132"/>
     <mergeCell ref="A56:A67"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A17:A28"/>
     <mergeCell ref="A30:A41"/>
     <mergeCell ref="A43:A54"/>
+    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="A82:A93"/>
+    <mergeCell ref="A95:A106"/>
+    <mergeCell ref="A108:A119"/>
+    <mergeCell ref="A121:A132"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:XFD3">
     <cfRule type="duplicateValues" dxfId="8" priority="1"/>
@@ -30911,8 +31086,8 @@
   <dimension ref="A1:AL152"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L15" sqref="L15"/>
+      <pane xSplit="2" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="18" outlineLevelRow="1" x14ac:dyDescent="0.45"/>
@@ -30947,10 +31122,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="35">
         <v>1</v>
       </c>
@@ -31061,7 +31236,7 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A2" s="78">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -31103,9 +31278,8 @@
       <c r="L2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="M2" s="2" t="str">
-        <f>IF(ISNA(VLOOKUP(M3,'اطلاعات پایه'!$D$4:$E$999,2,FALSE))=TRUE,"",VLOOKUP(M3,'اطلاعات پایه'!$D$4:$E$999,2,FALSE))</f>
-        <v/>
+      <c r="M2" s="2" t="s">
+        <v>1093</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
@@ -31188,7 +31362,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -31222,7 +31396,9 @@
       <c r="L3" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" s="2" t="s">
+        <v>1092</v>
+      </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
@@ -31250,7 +31426,7 @@
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="78"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -31284,7 +31460,9 @@
       <c r="L4" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2" t="s">
+        <v>1094</v>
+      </c>
       <c r="N4" s="40"/>
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
@@ -31312,7 +31490,7 @@
       <c r="AL4" s="2"/>
     </row>
     <row r="5" spans="1:38" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="78"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="73" t="s">
         <v>6</v>
       </c>
@@ -31346,7 +31524,9 @@
       <c r="L5" s="42">
         <v>0.375</v>
       </c>
-      <c r="M5" s="42"/>
+      <c r="M5" s="42">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
@@ -31374,7 +31554,7 @@
       <c r="AL5" s="42"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="78"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -31408,7 +31588,9 @@
       <c r="L6" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2" t="s">
+        <v>1085</v>
+      </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
@@ -31436,7 +31618,7 @@
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:38" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="78"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="73" t="s">
         <v>3</v>
       </c>
@@ -31470,7 +31652,9 @@
       <c r="L7" s="42">
         <v>0.47916666666666669</v>
       </c>
-      <c r="M7" s="42"/>
+      <c r="M7" s="42">
+        <v>0.72916666666666663</v>
+      </c>
       <c r="N7" s="42"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
@@ -31498,7 +31682,7 @@
       <c r="AL7" s="42"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A8" s="78"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -31532,7 +31716,9 @@
       <c r="L8" s="39" t="s">
         <v>986</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>1085</v>
+      </c>
       <c r="N8" s="42"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
@@ -31560,7 +31746,7 @@
       <c r="AL8" s="2"/>
     </row>
     <row r="9" spans="1:38" s="74" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="78"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="73" t="s">
         <v>1</v>
       </c>
@@ -31594,7 +31780,9 @@
       <c r="L9" s="65">
         <v>0.10416666666666667</v>
       </c>
-      <c r="M9" s="65"/>
+      <c r="M9" s="65">
+        <v>2.0833333333333332E-2</v>
+      </c>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -31622,7 +31810,7 @@
       <c r="AL9" s="42"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A10" s="78"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -31656,7 +31844,9 @@
       <c r="L10" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>961</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
@@ -31684,7 +31874,7 @@
       <c r="AL10" s="2"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A11" s="78"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -31718,7 +31908,9 @@
       <c r="L11" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>1095</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
@@ -31746,7 +31938,7 @@
       <c r="AL11" s="2"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A12" s="78"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="3" t="s">
         <v>926</v>
       </c>
@@ -31780,7 +31972,9 @@
       <c r="L12" s="57" t="s">
         <v>933</v>
       </c>
-      <c r="M12" s="9"/>
+      <c r="M12" s="9" t="s">
+        <v>932</v>
+      </c>
       <c r="N12" s="9"/>
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
@@ -31808,7 +32002,7 @@
       <c r="AL12" s="9"/>
     </row>
     <row r="13" spans="1:38" s="72" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="78"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="71" t="s">
         <v>10</v>
       </c>
@@ -31842,7 +32036,9 @@
       <c r="L13" s="41" t="s">
         <v>1061</v>
       </c>
-      <c r="M13" s="41"/>
+      <c r="M13" s="41" t="s">
+        <v>1096</v>
+      </c>
       <c r="N13" s="41"/>
       <c r="O13" s="41"/>
       <c r="P13" s="41"/>
@@ -31870,7 +32066,7 @@
       <c r="AL13" s="41"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A14" s="78"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -31894,7 +32090,9 @@
       <c r="L14" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>1097</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
@@ -31922,7 +32120,7 @@
       <c r="AL14" s="2"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A15" s="78"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -32006,7 +32204,7 @@
       </c>
       <c r="M16" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
         <f t="shared" si="0"/>
@@ -32110,7 +32308,7 @@
       </c>
     </row>
     <row r="17" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="78">
+      <c r="A17" s="80">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -32128,7 +32326,9 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>1098</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -32158,7 +32358,7 @@
       <c r="AL17" s="2"/>
     </row>
     <row r="18" spans="1:38" s="68" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="78"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="67" t="s">
         <v>6</v>
       </c>
@@ -32174,7 +32374,9 @@
       <c r="H18" s="42"/>
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
+      <c r="K18" s="42">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="L18" s="42"/>
       <c r="M18" s="42"/>
       <c r="N18" s="42"/>
@@ -32204,7 +32406,7 @@
       <c r="AL18" s="42"/>
     </row>
     <row r="19" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A19" s="78"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -32220,7 +32422,9 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="2" t="s">
+        <v>1085</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -32250,7 +32454,7 @@
       <c r="AL19" s="2"/>
     </row>
     <row r="20" spans="1:38" s="68" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A20" s="78"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="67" t="s">
         <v>3</v>
       </c>
@@ -32266,7 +32470,9 @@
       <c r="H20" s="42"/>
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
+      <c r="K20" s="42">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="L20" s="42"/>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
@@ -32296,7 +32502,7 @@
       <c r="AL20" s="42"/>
     </row>
     <row r="21" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A21" s="78"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
@@ -32312,7 +32518,9 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="2" t="s">
+        <v>1085</v>
+      </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -32342,7 +32550,7 @@
       <c r="AL21" s="2"/>
     </row>
     <row r="22" spans="1:38" s="68" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="78"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="67" t="s">
         <v>1</v>
       </c>
@@ -32358,7 +32566,9 @@
       <c r="H22" s="42"/>
       <c r="I22" s="42"/>
       <c r="J22" s="42"/>
-      <c r="K22" s="42"/>
+      <c r="K22" s="42">
+        <v>8.3333333333333329E-2</v>
+      </c>
       <c r="L22" s="42"/>
       <c r="M22" s="42"/>
       <c r="N22" s="42"/>
@@ -32388,7 +32598,7 @@
       <c r="AL22" s="42"/>
     </row>
     <row r="23" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="78"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
@@ -32404,7 +32614,9 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="2" t="s">
+        <v>961</v>
+      </c>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -32434,7 +32646,7 @@
       <c r="AL23" s="2"/>
     </row>
     <row r="24" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="78"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
@@ -32450,7 +32662,9 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="2" t="s">
+        <v>962</v>
+      </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -32480,7 +32694,7 @@
       <c r="AL24" s="2"/>
     </row>
     <row r="25" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="78"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="3" t="s">
         <v>926</v>
       </c>
@@ -32496,7 +32710,9 @@
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
       <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="K25" s="9" t="s">
+        <v>934</v>
+      </c>
       <c r="L25" s="9"/>
       <c r="M25" s="9"/>
       <c r="N25" s="9"/>
@@ -32526,7 +32742,7 @@
       <c r="AL25" s="9"/>
     </row>
     <row r="26" spans="1:38" s="69" customFormat="1" ht="54" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="66" t="s">
         <v>10</v>
       </c>
@@ -32542,7 +32758,9 @@
       <c r="H26" s="41"/>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
-      <c r="K26" s="41"/>
+      <c r="K26" s="41" t="s">
+        <v>1099</v>
+      </c>
       <c r="L26" s="41"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -32572,7 +32790,7 @@
       <c r="AL26" s="2"/>
     </row>
     <row r="27" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A27" s="78"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
@@ -32588,7 +32806,9 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="2" t="s">
+        <v>1100</v>
+      </c>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -32618,7 +32838,7 @@
       <c r="AL27" s="2"/>
     </row>
     <row r="28" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A28" s="78"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -32694,7 +32914,7 @@
       </c>
       <c r="K29" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L29" s="7">
         <f t="shared" si="1"/>
@@ -32806,7 +33026,7 @@
       </c>
     </row>
     <row r="30" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="78">
+      <c r="A30" s="80">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -32850,7 +33070,7 @@
       <c r="AL30" s="2"/>
     </row>
     <row r="31" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="78"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
@@ -32892,7 +33112,7 @@
       <c r="AL31" s="2"/>
     </row>
     <row r="32" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="78"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
@@ -32934,7 +33154,7 @@
       <c r="AL32" s="2"/>
     </row>
     <row r="33" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="78"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
@@ -32976,7 +33196,7 @@
       <c r="AL33" s="2"/>
     </row>
     <row r="34" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="78"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
@@ -33018,7 +33238,7 @@
       <c r="AL34" s="2"/>
     </row>
     <row r="35" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="78"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
@@ -33060,7 +33280,7 @@
       <c r="AL35" s="36"/>
     </row>
     <row r="36" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="78"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
@@ -33102,7 +33322,7 @@
       <c r="AL36" s="2"/>
     </row>
     <row r="37" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="78"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
@@ -33144,7 +33364,7 @@
       <c r="AL37" s="2"/>
     </row>
     <row r="38" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="78"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="3" t="s">
         <v>926</v>
       </c>
@@ -33186,7 +33406,7 @@
       <c r="AL38" s="9"/>
     </row>
     <row r="39" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="78"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
@@ -33228,7 +33448,7 @@
       <c r="AL39" s="2"/>
     </row>
     <row r="40" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="78"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -33270,7 +33490,7 @@
       <c r="AL40" s="2"/>
     </row>
     <row r="41" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="78"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -33458,7 +33678,7 @@
       </c>
     </row>
     <row r="43" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="78">
+      <c r="A43" s="80">
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -33502,7 +33722,7 @@
       <c r="AL43" s="2"/>
     </row>
     <row r="44" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="78"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -33544,7 +33764,7 @@
       <c r="AL44" s="2"/>
     </row>
     <row r="45" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="78"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
@@ -33586,7 +33806,7 @@
       <c r="AL45" s="2"/>
     </row>
     <row r="46" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="78"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
@@ -33628,7 +33848,7 @@
       <c r="AL46" s="2"/>
     </row>
     <row r="47" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="78"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
@@ -33670,7 +33890,7 @@
       <c r="AL47" s="2"/>
     </row>
     <row r="48" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="78"/>
+      <c r="A48" s="80"/>
       <c r="B48" s="3" t="s">
         <v>1</v>
       </c>
@@ -33712,7 +33932,7 @@
       <c r="AL48" s="36"/>
     </row>
     <row r="49" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="78"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
@@ -33754,7 +33974,7 @@
       <c r="AL49" s="2"/>
     </row>
     <row r="50" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="78"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
@@ -33796,7 +34016,7 @@
       <c r="AL50" s="2"/>
     </row>
     <row r="51" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="78"/>
+      <c r="A51" s="80"/>
       <c r="B51" s="3" t="s">
         <v>926</v>
       </c>
@@ -33838,7 +34058,7 @@
       <c r="AL51" s="9"/>
     </row>
     <row r="52" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="78"/>
+      <c r="A52" s="80"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
       </c>
@@ -33880,7 +34100,7 @@
       <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="78"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
@@ -33922,7 +34142,7 @@
       <c r="AL53" s="2"/>
     </row>
     <row r="54" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="78"/>
+      <c r="A54" s="80"/>
       <c r="B54" s="3" t="s">
         <v>16</v>
       </c>
@@ -34110,7 +34330,7 @@
       </c>
     </row>
     <row r="56" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="78">
+      <c r="A56" s="80">
         <v>5</v>
       </c>
       <c r="B56" s="3" t="s">
@@ -34154,7 +34374,7 @@
       <c r="AL56" s="2"/>
     </row>
     <row r="57" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="78"/>
+      <c r="A57" s="80"/>
       <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
@@ -34196,7 +34416,7 @@
       <c r="AL57" s="2"/>
     </row>
     <row r="58" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="78"/>
+      <c r="A58" s="80"/>
       <c r="B58" s="3" t="s">
         <v>5</v>
       </c>
@@ -34238,7 +34458,7 @@
       <c r="AL58" s="2"/>
     </row>
     <row r="59" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="78"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
@@ -34280,7 +34500,7 @@
       <c r="AL59" s="2"/>
     </row>
     <row r="60" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="78"/>
+      <c r="A60" s="80"/>
       <c r="B60" s="3" t="s">
         <v>4</v>
       </c>
@@ -34322,7 +34542,7 @@
       <c r="AL60" s="2"/>
     </row>
     <row r="61" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="78"/>
+      <c r="A61" s="80"/>
       <c r="B61" s="3" t="s">
         <v>1</v>
       </c>
@@ -34364,7 +34584,7 @@
       <c r="AL61" s="36"/>
     </row>
     <row r="62" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="78"/>
+      <c r="A62" s="80"/>
       <c r="B62" s="3" t="s">
         <v>8</v>
       </c>
@@ -34406,7 +34626,7 @@
       <c r="AL62" s="2"/>
     </row>
     <row r="63" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="78"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="3" t="s">
         <v>9</v>
       </c>
@@ -34448,7 +34668,7 @@
       <c r="AL63" s="2"/>
     </row>
     <row r="64" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="78"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="3" t="s">
         <v>926</v>
       </c>
@@ -34490,7 +34710,7 @@
       <c r="AL64" s="9"/>
     </row>
     <row r="65" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="78"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="3" t="s">
         <v>10</v>
       </c>
@@ -34532,7 +34752,7 @@
       <c r="AL65" s="2"/>
     </row>
     <row r="66" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="78"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="3" t="s">
         <v>15</v>
       </c>
@@ -34574,7 +34794,7 @@
       <c r="AL66" s="2"/>
     </row>
     <row r="67" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="78"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="3" t="s">
         <v>16</v>
       </c>
@@ -34762,7 +34982,7 @@
       </c>
     </row>
     <row r="69" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="78">
+      <c r="A69" s="80">
         <v>6</v>
       </c>
       <c r="B69" s="3" t="s">
@@ -34806,7 +35026,7 @@
       <c r="AL69" s="2"/>
     </row>
     <row r="70" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="78"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
@@ -34848,7 +35068,7 @@
       <c r="AL70" s="2"/>
     </row>
     <row r="71" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="78"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="3" t="s">
         <v>5</v>
       </c>
@@ -34890,7 +35110,7 @@
       <c r="AL71" s="2"/>
     </row>
     <row r="72" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="78"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="3" t="s">
         <v>3</v>
       </c>
@@ -34932,7 +35152,7 @@
       <c r="AL72" s="2"/>
     </row>
     <row r="73" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="78"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="3" t="s">
         <v>4</v>
       </c>
@@ -34974,7 +35194,7 @@
       <c r="AL73" s="2"/>
     </row>
     <row r="74" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="78"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="3" t="s">
         <v>1</v>
       </c>
@@ -35016,7 +35236,7 @@
       <c r="AL74" s="36"/>
     </row>
     <row r="75" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="78"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
@@ -35058,7 +35278,7 @@
       <c r="AL75" s="2"/>
     </row>
     <row r="76" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="78"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="3" t="s">
         <v>9</v>
       </c>
@@ -35100,7 +35320,7 @@
       <c r="AL76" s="2"/>
     </row>
     <row r="77" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="78"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="3" t="s">
         <v>926</v>
       </c>
@@ -35142,7 +35362,7 @@
       <c r="AL77" s="9"/>
     </row>
     <row r="78" spans="1:38" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="78"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="66" t="s">
         <v>10</v>
       </c>
@@ -35184,7 +35404,7 @@
       <c r="AL78" s="2"/>
     </row>
     <row r="79" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="78"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="3" t="s">
         <v>15</v>
       </c>
@@ -35226,7 +35446,7 @@
       <c r="AL79" s="2"/>
     </row>
     <row r="80" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="78"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="3" t="s">
         <v>16</v>
       </c>
@@ -35414,7 +35634,7 @@
       </c>
     </row>
     <row r="82" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="78">
+      <c r="A82" s="80">
         <v>7</v>
       </c>
       <c r="B82" s="3" t="s">
@@ -35458,7 +35678,7 @@
       <c r="AL82" s="2"/>
     </row>
     <row r="83" spans="1:38" s="68" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="78"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="67" t="s">
         <v>6</v>
       </c>
@@ -35500,7 +35720,7 @@
       <c r="AL83" s="42"/>
     </row>
     <row r="84" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="78"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="3" t="s">
         <v>5</v>
       </c>
@@ -35542,7 +35762,7 @@
       <c r="AL84" s="2"/>
     </row>
     <row r="85" spans="1:38" s="68" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="78"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="67" t="s">
         <v>3</v>
       </c>
@@ -35584,7 +35804,7 @@
       <c r="AL85" s="42"/>
     </row>
     <row r="86" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="78"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="3" t="s">
         <v>4</v>
       </c>
@@ -35626,7 +35846,7 @@
       <c r="AL86" s="2"/>
     </row>
     <row r="87" spans="1:38" s="68" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="78"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="67" t="s">
         <v>1</v>
       </c>
@@ -35668,7 +35888,7 @@
       <c r="AL87" s="42"/>
     </row>
     <row r="88" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="78"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="3" t="s">
         <v>8</v>
       </c>
@@ -35710,7 +35930,7 @@
       <c r="AL88" s="2"/>
     </row>
     <row r="89" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="78"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="3" t="s">
         <v>9</v>
       </c>
@@ -35752,7 +35972,7 @@
       <c r="AL89" s="2"/>
     </row>
     <row r="90" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="78"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="3" t="s">
         <v>926</v>
       </c>
@@ -35794,7 +36014,7 @@
       <c r="AL90" s="9"/>
     </row>
     <row r="91" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="78"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="3" t="s">
         <v>10</v>
       </c>
@@ -35836,7 +36056,7 @@
       <c r="AL91" s="2"/>
     </row>
     <row r="92" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="78"/>
+      <c r="A92" s="80"/>
       <c r="B92" s="3" t="s">
         <v>15</v>
       </c>
@@ -35878,7 +36098,7 @@
       <c r="AL92" s="2"/>
     </row>
     <row r="93" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="78"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="3" t="s">
         <v>16</v>
       </c>
@@ -36066,7 +36286,7 @@
       </c>
     </row>
     <row r="95" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="78"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
@@ -36108,7 +36328,7 @@
       <c r="AL95" s="2"/>
     </row>
     <row r="96" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="78"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
@@ -36150,7 +36370,7 @@
       <c r="AL96" s="2"/>
     </row>
     <row r="97" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="78"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -36192,7 +36412,7 @@
       <c r="AL97" s="2"/>
     </row>
     <row r="98" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="78"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="3" t="s">
         <v>3</v>
       </c>
@@ -36234,7 +36454,7 @@
       <c r="AL98" s="2"/>
     </row>
     <row r="99" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="78"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="3" t="s">
         <v>4</v>
       </c>
@@ -36276,7 +36496,7 @@
       <c r="AL99" s="2"/>
     </row>
     <row r="100" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="78"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
@@ -36318,7 +36538,7 @@
       <c r="AL100" s="36"/>
     </row>
     <row r="101" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="78"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="3" t="s">
         <v>8</v>
       </c>
@@ -36360,7 +36580,7 @@
       <c r="AL101" s="2"/>
     </row>
     <row r="102" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="78"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="3" t="s">
         <v>9</v>
       </c>
@@ -36402,7 +36622,7 @@
       <c r="AL102" s="2"/>
     </row>
     <row r="103" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="78"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="3" t="s">
         <v>926</v>
       </c>
@@ -36444,7 +36664,7 @@
       <c r="AL103" s="9"/>
     </row>
     <row r="104" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="78"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="3" t="s">
         <v>10</v>
       </c>
@@ -36486,7 +36706,7 @@
       <c r="AL104" s="2"/>
     </row>
     <row r="105" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="78"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="3" t="s">
         <v>15</v>
       </c>
@@ -36528,7 +36748,7 @@
       <c r="AL105" s="2"/>
     </row>
     <row r="106" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="78"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
@@ -36716,7 +36936,7 @@
       </c>
     </row>
     <row r="108" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="78"/>
+      <c r="A108" s="80"/>
       <c r="B108" s="3" t="s">
         <v>7</v>
       </c>
@@ -36758,7 +36978,7 @@
       <c r="AL108" s="2"/>
     </row>
     <row r="109" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="78"/>
+      <c r="A109" s="80"/>
       <c r="B109" s="3" t="s">
         <v>6</v>
       </c>
@@ -36800,7 +37020,7 @@
       <c r="AL109" s="2"/>
     </row>
     <row r="110" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="78"/>
+      <c r="A110" s="80"/>
       <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
@@ -36842,7 +37062,7 @@
       <c r="AL110" s="2"/>
     </row>
     <row r="111" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="78"/>
+      <c r="A111" s="80"/>
       <c r="B111" s="3" t="s">
         <v>3</v>
       </c>
@@ -36884,7 +37104,7 @@
       <c r="AL111" s="2"/>
     </row>
     <row r="112" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="78"/>
+      <c r="A112" s="80"/>
       <c r="B112" s="3" t="s">
         <v>4</v>
       </c>
@@ -36926,7 +37146,7 @@
       <c r="AL112" s="2"/>
     </row>
     <row r="113" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="78"/>
+      <c r="A113" s="80"/>
       <c r="B113" s="3" t="s">
         <v>1</v>
       </c>
@@ -36968,7 +37188,7 @@
       <c r="AL113" s="36"/>
     </row>
     <row r="114" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="78"/>
+      <c r="A114" s="80"/>
       <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
@@ -37010,7 +37230,7 @@
       <c r="AL114" s="2"/>
     </row>
     <row r="115" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="78"/>
+      <c r="A115" s="80"/>
       <c r="B115" s="3" t="s">
         <v>9</v>
       </c>
@@ -37052,7 +37272,7 @@
       <c r="AL115" s="2"/>
     </row>
     <row r="116" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="78"/>
+      <c r="A116" s="80"/>
       <c r="B116" s="3" t="s">
         <v>926</v>
       </c>
@@ -37094,7 +37314,7 @@
       <c r="AL116" s="9"/>
     </row>
     <row r="117" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="78"/>
+      <c r="A117" s="80"/>
       <c r="B117" s="3" t="s">
         <v>10</v>
       </c>
@@ -37136,7 +37356,7 @@
       <c r="AL117" s="2"/>
     </row>
     <row r="118" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="78"/>
+      <c r="A118" s="80"/>
       <c r="B118" s="3" t="s">
         <v>15</v>
       </c>
@@ -37178,7 +37398,7 @@
       <c r="AL118" s="2"/>
     </row>
     <row r="119" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="78"/>
+      <c r="A119" s="80"/>
       <c r="B119" s="3" t="s">
         <v>16</v>
       </c>
@@ -37366,7 +37586,7 @@
       </c>
     </row>
     <row r="121" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="78"/>
+      <c r="A121" s="80"/>
       <c r="B121" s="3" t="s">
         <v>7</v>
       </c>
@@ -37408,7 +37628,7 @@
       <c r="AL121" s="2"/>
     </row>
     <row r="122" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="78"/>
+      <c r="A122" s="80"/>
       <c r="B122" s="3" t="s">
         <v>6</v>
       </c>
@@ -37450,7 +37670,7 @@
       <c r="AL122" s="2"/>
     </row>
     <row r="123" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="78"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="3" t="s">
         <v>5</v>
       </c>
@@ -37492,7 +37712,7 @@
       <c r="AL123" s="2"/>
     </row>
     <row r="124" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="78"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="3" t="s">
         <v>3</v>
       </c>
@@ -37534,7 +37754,7 @@
       <c r="AL124" s="2"/>
     </row>
     <row r="125" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="78"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="3" t="s">
         <v>4</v>
       </c>
@@ -37576,7 +37796,7 @@
       <c r="AL125" s="2"/>
     </row>
     <row r="126" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="78"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="3" t="s">
         <v>1</v>
       </c>
@@ -37618,7 +37838,7 @@
       <c r="AL126" s="37"/>
     </row>
     <row r="127" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="78"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="3" t="s">
         <v>8</v>
       </c>
@@ -37660,7 +37880,7 @@
       <c r="AL127" s="2"/>
     </row>
     <row r="128" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="78"/>
+      <c r="A128" s="80"/>
       <c r="B128" s="3" t="s">
         <v>9</v>
       </c>
@@ -37702,7 +37922,7 @@
       <c r="AL128" s="2"/>
     </row>
     <row r="129" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="78"/>
+      <c r="A129" s="80"/>
       <c r="B129" s="3" t="s">
         <v>926</v>
       </c>
@@ -37744,7 +37964,7 @@
       <c r="AL129" s="9"/>
     </row>
     <row r="130" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="78"/>
+      <c r="A130" s="80"/>
       <c r="B130" s="3" t="s">
         <v>10</v>
       </c>
@@ -37786,7 +38006,7 @@
       <c r="AL130" s="2"/>
     </row>
     <row r="131" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="78"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="3" t="s">
         <v>15</v>
       </c>
@@ -37828,7 +38048,7 @@
       <c r="AL131" s="2"/>
     </row>
     <row r="132" spans="1:38" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="78"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="3" t="s">
         <v>16</v>
       </c>
@@ -38067,7 +38287,7 @@
       </c>
       <c r="K135" s="8">
         <f t="shared" si="10"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L135" s="8">
         <f t="shared" si="10"/>
@@ -38075,7 +38295,7 @@
       </c>
       <c r="M135" s="8">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N135" s="8">
         <f t="shared" si="10"/>
@@ -38216,7 +38436,7 @@
       </c>
       <c r="K136" s="17">
         <f t="shared" si="11"/>
-        <v>8.3333333333333329E-2</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="L136" s="17">
         <f t="shared" si="11"/>
@@ -38224,7 +38444,7 @@
       </c>
       <c r="M136" s="17">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N136" s="17">
         <f t="shared" si="11"/>
@@ -38415,9 +38635,9 @@
         <f t="shared" si="12"/>
         <v>0.10416666666666667</v>
       </c>
-      <c r="M138" s="50" t="e">
+      <c r="M138" s="50">
         <f t="shared" si="12"/>
-        <v>#DIV/0!</v>
+        <v>2.0833333333333332E-2</v>
       </c>
       <c r="N138" s="50" t="e">
         <f t="shared" si="12"/>
@@ -38558,15 +38778,15 @@
       </c>
       <c r="K139" s="5">
         <f t="shared" si="13"/>
-        <v>53.916666666666664</v>
+        <v>26.916666666666668</v>
       </c>
       <c r="L139" s="5">
         <f t="shared" si="13"/>
         <v>53.895833333333336</v>
       </c>
-      <c r="M139" s="5" t="e">
+      <c r="M139" s="5">
         <f t="shared" si="13"/>
-        <v>#DIV/0!</v>
+        <v>53.979166666666664</v>
       </c>
       <c r="N139" s="5" t="e">
         <f t="shared" si="13"/>
@@ -38676,7 +38896,7 @@
       </c>
       <c r="C141" s="52">
         <f>SUM(C136:AL136)</f>
-        <v>1.1458333333333333</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="143" spans="1:38" ht="19.5" x14ac:dyDescent="0.45">
@@ -38693,7 +38913,7 @@
       </c>
       <c r="C144" s="55">
         <f>SUMIF($C$12:$BN$12,B144,$C$9:$BN$9)+SUMIF($C$25:$BN$25,B144,$C$22:$BN$22)+SUMIF($C$38:$BN$38,B144,$C$35:$BN$35)+SUMIF($C$51:$BN$51,B144,$C$48:$BN$48)+SUMIF($C$64:$BN$64,B144,$C$61:$BN$61)+SUMIF($C$77:$BN$77,B144,$C$74:$BN$74)+SUMIF($C$90:$BN$90,B144,$C$87:$BN$87)+SUMIF($C$103:$BN$103,B144,$C$100:$BN$100)+SUMIF($C$116:$BN$116,B144,$C$113:$BN$113)+SUMIF($C$129:$BN$129,B144,$C$126:$BN$126)</f>
-        <v>0.6875</v>
+        <v>0.70833333333333337</v>
       </c>
     </row>
     <row r="145" spans="2:3" ht="22.5" x14ac:dyDescent="0.45">
@@ -38711,7 +38931,7 @@
       </c>
       <c r="C146" s="55">
         <f t="shared" si="14"/>
-        <v>0.35416666666666669</v>
+        <v>0.4375</v>
       </c>
     </row>
     <row r="147" spans="2:3" ht="22.5" x14ac:dyDescent="0.45">
@@ -38762,22 +38982,22 @@
     <row r="152" spans="2:3" x14ac:dyDescent="0.45">
       <c r="C152" s="56">
         <f>SUM(C144:C151)</f>
-        <v>1.1458333333333333</v>
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A69:A80"/>
-    <mergeCell ref="A82:A93"/>
-    <mergeCell ref="A95:A106"/>
-    <mergeCell ref="A108:A119"/>
-    <mergeCell ref="A121:A132"/>
     <mergeCell ref="A56:A67"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A17:A28"/>
     <mergeCell ref="A30:A41"/>
     <mergeCell ref="A43:A54"/>
+    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="A82:A93"/>
+    <mergeCell ref="A95:A106"/>
+    <mergeCell ref="A108:A119"/>
+    <mergeCell ref="A121:A132"/>
   </mergeCells>
   <conditionalFormatting sqref="C5">
     <cfRule type="expression" dxfId="7" priority="9">
@@ -38858,10 +39078,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="77"/>
+      <c r="B1" s="79"/>
       <c r="C1" s="35">
         <v>1</v>
       </c>
@@ -38972,7 +39192,7 @@
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A2" s="78">
+      <c r="A2" s="80">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -39121,7 +39341,7 @@
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A3" s="78"/>
+      <c r="A3" s="80"/>
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
@@ -39167,7 +39387,7 @@
       <c r="AL3" s="2"/>
     </row>
     <row r="4" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="78"/>
+      <c r="A4" s="80"/>
       <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
@@ -39213,7 +39433,7 @@
       <c r="AL4" s="2"/>
     </row>
     <row r="5" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A5" s="78"/>
+      <c r="A5" s="80"/>
       <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
@@ -39259,7 +39479,7 @@
       <c r="AL5" s="2"/>
     </row>
     <row r="6" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A6" s="78"/>
+      <c r="A6" s="80"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -39305,7 +39525,7 @@
       <c r="AL6" s="2"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A7" s="78"/>
+      <c r="A7" s="80"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
@@ -39351,7 +39571,7 @@
       <c r="AL7" s="2"/>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A8" s="78"/>
+      <c r="A8" s="80"/>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
@@ -39397,7 +39617,7 @@
       <c r="AL8" s="2"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A9" s="78"/>
+      <c r="A9" s="80"/>
       <c r="B9" s="3" t="s">
         <v>1</v>
       </c>
@@ -39443,7 +39663,7 @@
       <c r="AL9" s="36"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A10" s="78"/>
+      <c r="A10" s="80"/>
       <c r="B10" s="3" t="s">
         <v>8</v>
       </c>
@@ -39489,7 +39709,7 @@
       <c r="AL10" s="2"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A11" s="78"/>
+      <c r="A11" s="80"/>
       <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
@@ -39535,7 +39755,7 @@
       <c r="AL11" s="2"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A12" s="78"/>
+      <c r="A12" s="80"/>
       <c r="B12" s="3" t="s">
         <v>926</v>
       </c>
@@ -39581,7 +39801,7 @@
       <c r="AL12" s="9"/>
     </row>
     <row r="13" spans="1:38" ht="36" x14ac:dyDescent="0.45">
-      <c r="A13" s="78"/>
+      <c r="A13" s="80"/>
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
@@ -39627,7 +39847,7 @@
       <c r="AL13" s="2"/>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A14" s="78"/>
+      <c r="A14" s="80"/>
       <c r="B14" s="3" t="s">
         <v>15</v>
       </c>
@@ -39671,7 +39891,7 @@
       <c r="AL14" s="2"/>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A15" s="78"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="3" t="s">
         <v>16</v>
       </c>
@@ -39859,7 +40079,7 @@
       </c>
     </row>
     <row r="17" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A17" s="78">
+      <c r="A17" s="80">
         <v>2</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -39903,7 +40123,7 @@
       <c r="AL17" s="2"/>
     </row>
     <row r="18" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A18" s="78"/>
+      <c r="A18" s="80"/>
       <c r="B18" s="3" t="s">
         <v>6</v>
       </c>
@@ -39945,7 +40165,7 @@
       <c r="AL18" s="2"/>
     </row>
     <row r="19" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A19" s="78"/>
+      <c r="A19" s="80"/>
       <c r="B19" s="3" t="s">
         <v>5</v>
       </c>
@@ -39987,7 +40207,7 @@
       <c r="AL19" s="2"/>
     </row>
     <row r="20" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A20" s="78"/>
+      <c r="A20" s="80"/>
       <c r="B20" s="3" t="s">
         <v>3</v>
       </c>
@@ -40029,7 +40249,7 @@
       <c r="AL20" s="2"/>
     </row>
     <row r="21" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A21" s="78"/>
+      <c r="A21" s="80"/>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
@@ -40071,7 +40291,7 @@
       <c r="AL21" s="2"/>
     </row>
     <row r="22" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A22" s="78"/>
+      <c r="A22" s="80"/>
       <c r="B22" s="3" t="s">
         <v>1</v>
       </c>
@@ -40113,7 +40333,7 @@
       <c r="AL22" s="36"/>
     </row>
     <row r="23" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A23" s="78"/>
+      <c r="A23" s="80"/>
       <c r="B23" s="3" t="s">
         <v>8</v>
       </c>
@@ -40155,7 +40375,7 @@
       <c r="AL23" s="2"/>
     </row>
     <row r="24" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A24" s="78"/>
+      <c r="A24" s="80"/>
       <c r="B24" s="3" t="s">
         <v>9</v>
       </c>
@@ -40197,7 +40417,7 @@
       <c r="AL24" s="2"/>
     </row>
     <row r="25" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A25" s="78"/>
+      <c r="A25" s="80"/>
       <c r="B25" s="3" t="s">
         <v>926</v>
       </c>
@@ -40239,7 +40459,7 @@
       <c r="AL25" s="9"/>
     </row>
     <row r="26" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A26" s="78"/>
+      <c r="A26" s="80"/>
       <c r="B26" s="3" t="s">
         <v>10</v>
       </c>
@@ -40281,7 +40501,7 @@
       <c r="AL26" s="2"/>
     </row>
     <row r="27" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A27" s="78"/>
+      <c r="A27" s="80"/>
       <c r="B27" s="3" t="s">
         <v>15</v>
       </c>
@@ -40323,7 +40543,7 @@
       <c r="AL27" s="2"/>
     </row>
     <row r="28" spans="1:38" x14ac:dyDescent="0.45">
-      <c r="A28" s="78"/>
+      <c r="A28" s="80"/>
       <c r="B28" s="3" t="s">
         <v>16</v>
       </c>
@@ -40511,7 +40731,7 @@
       </c>
     </row>
     <row r="30" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A30" s="78">
+      <c r="A30" s="80">
         <v>3</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -40555,7 +40775,7 @@
       <c r="AL30" s="2"/>
     </row>
     <row r="31" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A31" s="78"/>
+      <c r="A31" s="80"/>
       <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
@@ -40597,7 +40817,7 @@
       <c r="AL31" s="2"/>
     </row>
     <row r="32" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A32" s="78"/>
+      <c r="A32" s="80"/>
       <c r="B32" s="3" t="s">
         <v>5</v>
       </c>
@@ -40639,7 +40859,7 @@
       <c r="AL32" s="2"/>
     </row>
     <row r="33" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A33" s="78"/>
+      <c r="A33" s="80"/>
       <c r="B33" s="3" t="s">
         <v>3</v>
       </c>
@@ -40681,7 +40901,7 @@
       <c r="AL33" s="2"/>
     </row>
     <row r="34" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A34" s="78"/>
+      <c r="A34" s="80"/>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
@@ -40723,7 +40943,7 @@
       <c r="AL34" s="2"/>
     </row>
     <row r="35" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A35" s="78"/>
+      <c r="A35" s="80"/>
       <c r="B35" s="3" t="s">
         <v>1</v>
       </c>
@@ -40765,7 +40985,7 @@
       <c r="AL35" s="36"/>
     </row>
     <row r="36" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A36" s="78"/>
+      <c r="A36" s="80"/>
       <c r="B36" s="3" t="s">
         <v>8</v>
       </c>
@@ -40807,7 +41027,7 @@
       <c r="AL36" s="2"/>
     </row>
     <row r="37" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="78"/>
+      <c r="A37" s="80"/>
       <c r="B37" s="3" t="s">
         <v>9</v>
       </c>
@@ -40849,7 +41069,7 @@
       <c r="AL37" s="2"/>
     </row>
     <row r="38" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A38" s="78"/>
+      <c r="A38" s="80"/>
       <c r="B38" s="3" t="s">
         <v>926</v>
       </c>
@@ -40891,7 +41111,7 @@
       <c r="AL38" s="9"/>
     </row>
     <row r="39" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A39" s="78"/>
+      <c r="A39" s="80"/>
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
@@ -40933,7 +41153,7 @@
       <c r="AL39" s="2"/>
     </row>
     <row r="40" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A40" s="78"/>
+      <c r="A40" s="80"/>
       <c r="B40" s="3" t="s">
         <v>15</v>
       </c>
@@ -40975,7 +41195,7 @@
       <c r="AL40" s="2"/>
     </row>
     <row r="41" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A41" s="78"/>
+      <c r="A41" s="80"/>
       <c r="B41" s="3" t="s">
         <v>16</v>
       </c>
@@ -41163,7 +41383,7 @@
       </c>
     </row>
     <row r="43" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A43" s="78">
+      <c r="A43" s="80">
         <v>4</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -41207,7 +41427,7 @@
       <c r="AL43" s="2"/>
     </row>
     <row r="44" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A44" s="78"/>
+      <c r="A44" s="80"/>
       <c r="B44" s="3" t="s">
         <v>6</v>
       </c>
@@ -41249,7 +41469,7 @@
       <c r="AL44" s="2"/>
     </row>
     <row r="45" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A45" s="78"/>
+      <c r="A45" s="80"/>
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
@@ -41291,7 +41511,7 @@
       <c r="AL45" s="2"/>
     </row>
     <row r="46" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A46" s="78"/>
+      <c r="A46" s="80"/>
       <c r="B46" s="3" t="s">
         <v>3</v>
       </c>
@@ -41333,7 +41553,7 @@
       <c r="AL46" s="2"/>
     </row>
     <row r="47" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="78"/>
+      <c r="A47" s="80"/>
       <c r="B47" s="3" t="s">
         <v>4</v>
       </c>
@@ -41375,7 +41595,7 @@
       <c r="AL47" s="2"/>
     </row>
     <row r="48" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A48" s="78"/>
+      <c r="A48" s="80"/>
       <c r="B48" s="3" t="s">
         <v>1</v>
       </c>
@@ -41417,7 +41637,7 @@
       <c r="AL48" s="36"/>
     </row>
     <row r="49" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="78"/>
+      <c r="A49" s="80"/>
       <c r="B49" s="3" t="s">
         <v>8</v>
       </c>
@@ -41459,7 +41679,7 @@
       <c r="AL49" s="2"/>
     </row>
     <row r="50" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A50" s="78"/>
+      <c r="A50" s="80"/>
       <c r="B50" s="3" t="s">
         <v>9</v>
       </c>
@@ -41501,7 +41721,7 @@
       <c r="AL50" s="2"/>
     </row>
     <row r="51" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="78"/>
+      <c r="A51" s="80"/>
       <c r="B51" s="3" t="s">
         <v>926</v>
       </c>
@@ -41543,7 +41763,7 @@
       <c r="AL51" s="9"/>
     </row>
     <row r="52" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A52" s="78"/>
+      <c r="A52" s="80"/>
       <c r="B52" s="3" t="s">
         <v>10</v>
       </c>
@@ -41585,7 +41805,7 @@
       <c r="AL52" s="2"/>
     </row>
     <row r="53" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A53" s="78"/>
+      <c r="A53" s="80"/>
       <c r="B53" s="3" t="s">
         <v>15</v>
       </c>
@@ -41627,7 +41847,7 @@
       <c r="AL53" s="2"/>
     </row>
     <row r="54" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A54" s="78"/>
+      <c r="A54" s="80"/>
       <c r="B54" s="3" t="s">
         <v>16</v>
       </c>
@@ -41815,7 +42035,7 @@
       </c>
     </row>
     <row r="56" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A56" s="78"/>
+      <c r="A56" s="80"/>
       <c r="B56" s="3" t="s">
         <v>7</v>
       </c>
@@ -41857,7 +42077,7 @@
       <c r="AL56" s="2"/>
     </row>
     <row r="57" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A57" s="78"/>
+      <c r="A57" s="80"/>
       <c r="B57" s="3" t="s">
         <v>6</v>
       </c>
@@ -41899,7 +42119,7 @@
       <c r="AL57" s="2"/>
     </row>
     <row r="58" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A58" s="78"/>
+      <c r="A58" s="80"/>
       <c r="B58" s="3" t="s">
         <v>5</v>
       </c>
@@ -41941,7 +42161,7 @@
       <c r="AL58" s="2"/>
     </row>
     <row r="59" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A59" s="78"/>
+      <c r="A59" s="80"/>
       <c r="B59" s="3" t="s">
         <v>3</v>
       </c>
@@ -41983,7 +42203,7 @@
       <c r="AL59" s="2"/>
     </row>
     <row r="60" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A60" s="78"/>
+      <c r="A60" s="80"/>
       <c r="B60" s="3" t="s">
         <v>4</v>
       </c>
@@ -42025,7 +42245,7 @@
       <c r="AL60" s="2"/>
     </row>
     <row r="61" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="78"/>
+      <c r="A61" s="80"/>
       <c r="B61" s="3" t="s">
         <v>1</v>
       </c>
@@ -42067,7 +42287,7 @@
       <c r="AL61" s="36"/>
     </row>
     <row r="62" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A62" s="78"/>
+      <c r="A62" s="80"/>
       <c r="B62" s="3" t="s">
         <v>8</v>
       </c>
@@ -42109,7 +42329,7 @@
       <c r="AL62" s="2"/>
     </row>
     <row r="63" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A63" s="78"/>
+      <c r="A63" s="80"/>
       <c r="B63" s="3" t="s">
         <v>9</v>
       </c>
@@ -42151,7 +42371,7 @@
       <c r="AL63" s="2"/>
     </row>
     <row r="64" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A64" s="78"/>
+      <c r="A64" s="80"/>
       <c r="B64" s="3" t="s">
         <v>926</v>
       </c>
@@ -42193,7 +42413,7 @@
       <c r="AL64" s="9"/>
     </row>
     <row r="65" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A65" s="78"/>
+      <c r="A65" s="80"/>
       <c r="B65" s="3" t="s">
         <v>10</v>
       </c>
@@ -42235,7 +42455,7 @@
       <c r="AL65" s="2"/>
     </row>
     <row r="66" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A66" s="78"/>
+      <c r="A66" s="80"/>
       <c r="B66" s="3" t="s">
         <v>15</v>
       </c>
@@ -42277,7 +42497,7 @@
       <c r="AL66" s="2"/>
     </row>
     <row r="67" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A67" s="78"/>
+      <c r="A67" s="80"/>
       <c r="B67" s="3" t="s">
         <v>16</v>
       </c>
@@ -42465,7 +42685,7 @@
       </c>
     </row>
     <row r="69" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A69" s="78"/>
+      <c r="A69" s="80"/>
       <c r="B69" s="3" t="s">
         <v>7</v>
       </c>
@@ -42507,7 +42727,7 @@
       <c r="AL69" s="2"/>
     </row>
     <row r="70" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A70" s="78"/>
+      <c r="A70" s="80"/>
       <c r="B70" s="3" t="s">
         <v>6</v>
       </c>
@@ -42549,7 +42769,7 @@
       <c r="AL70" s="2"/>
     </row>
     <row r="71" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A71" s="78"/>
+      <c r="A71" s="80"/>
       <c r="B71" s="3" t="s">
         <v>5</v>
       </c>
@@ -42591,7 +42811,7 @@
       <c r="AL71" s="2"/>
     </row>
     <row r="72" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A72" s="78"/>
+      <c r="A72" s="80"/>
       <c r="B72" s="3" t="s">
         <v>3</v>
       </c>
@@ -42633,7 +42853,7 @@
       <c r="AL72" s="2"/>
     </row>
     <row r="73" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="78"/>
+      <c r="A73" s="80"/>
       <c r="B73" s="3" t="s">
         <v>4</v>
       </c>
@@ -42675,7 +42895,7 @@
       <c r="AL73" s="2"/>
     </row>
     <row r="74" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A74" s="78"/>
+      <c r="A74" s="80"/>
       <c r="B74" s="3" t="s">
         <v>1</v>
       </c>
@@ -42717,7 +42937,7 @@
       <c r="AL74" s="36"/>
     </row>
     <row r="75" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A75" s="78"/>
+      <c r="A75" s="80"/>
       <c r="B75" s="3" t="s">
         <v>8</v>
       </c>
@@ -42759,7 +42979,7 @@
       <c r="AL75" s="2"/>
     </row>
     <row r="76" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A76" s="78"/>
+      <c r="A76" s="80"/>
       <c r="B76" s="3" t="s">
         <v>9</v>
       </c>
@@ -42801,7 +43021,7 @@
       <c r="AL76" s="2"/>
     </row>
     <row r="77" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A77" s="78"/>
+      <c r="A77" s="80"/>
       <c r="B77" s="3" t="s">
         <v>926</v>
       </c>
@@ -42843,7 +43063,7 @@
       <c r="AL77" s="9"/>
     </row>
     <row r="78" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A78" s="78"/>
+      <c r="A78" s="80"/>
       <c r="B78" s="3" t="s">
         <v>10</v>
       </c>
@@ -42885,7 +43105,7 @@
       <c r="AL78" s="2"/>
     </row>
     <row r="79" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A79" s="78"/>
+      <c r="A79" s="80"/>
       <c r="B79" s="3" t="s">
         <v>15</v>
       </c>
@@ -42927,7 +43147,7 @@
       <c r="AL79" s="2"/>
     </row>
     <row r="80" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A80" s="78"/>
+      <c r="A80" s="80"/>
       <c r="B80" s="3" t="s">
         <v>16</v>
       </c>
@@ -43115,7 +43335,7 @@
       </c>
     </row>
     <row r="82" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A82" s="78"/>
+      <c r="A82" s="80"/>
       <c r="B82" s="3" t="s">
         <v>7</v>
       </c>
@@ -43157,7 +43377,7 @@
       <c r="AL82" s="2"/>
     </row>
     <row r="83" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A83" s="78"/>
+      <c r="A83" s="80"/>
       <c r="B83" s="3" t="s">
         <v>6</v>
       </c>
@@ -43199,7 +43419,7 @@
       <c r="AL83" s="2"/>
     </row>
     <row r="84" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A84" s="78"/>
+      <c r="A84" s="80"/>
       <c r="B84" s="3" t="s">
         <v>5</v>
       </c>
@@ -43241,7 +43461,7 @@
       <c r="AL84" s="2"/>
     </row>
     <row r="85" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A85" s="78"/>
+      <c r="A85" s="80"/>
       <c r="B85" s="3" t="s">
         <v>3</v>
       </c>
@@ -43283,7 +43503,7 @@
       <c r="AL85" s="2"/>
     </row>
     <row r="86" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A86" s="78"/>
+      <c r="A86" s="80"/>
       <c r="B86" s="3" t="s">
         <v>4</v>
       </c>
@@ -43325,7 +43545,7 @@
       <c r="AL86" s="2"/>
     </row>
     <row r="87" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A87" s="78"/>
+      <c r="A87" s="80"/>
       <c r="B87" s="3" t="s">
         <v>1</v>
       </c>
@@ -43367,7 +43587,7 @@
       <c r="AL87" s="36"/>
     </row>
     <row r="88" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A88" s="78"/>
+      <c r="A88" s="80"/>
       <c r="B88" s="3" t="s">
         <v>8</v>
       </c>
@@ -43409,7 +43629,7 @@
       <c r="AL88" s="2"/>
     </row>
     <row r="89" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A89" s="78"/>
+      <c r="A89" s="80"/>
       <c r="B89" s="3" t="s">
         <v>9</v>
       </c>
@@ -43451,7 +43671,7 @@
       <c r="AL89" s="2"/>
     </row>
     <row r="90" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A90" s="78"/>
+      <c r="A90" s="80"/>
       <c r="B90" s="3" t="s">
         <v>926</v>
       </c>
@@ -43493,7 +43713,7 @@
       <c r="AL90" s="9"/>
     </row>
     <row r="91" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A91" s="78"/>
+      <c r="A91" s="80"/>
       <c r="B91" s="3" t="s">
         <v>10</v>
       </c>
@@ -43535,7 +43755,7 @@
       <c r="AL91" s="2"/>
     </row>
     <row r="92" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A92" s="78"/>
+      <c r="A92" s="80"/>
       <c r="B92" s="3" t="s">
         <v>15</v>
       </c>
@@ -43577,7 +43797,7 @@
       <c r="AL92" s="2"/>
     </row>
     <row r="93" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A93" s="78"/>
+      <c r="A93" s="80"/>
       <c r="B93" s="3" t="s">
         <v>16</v>
       </c>
@@ -43765,7 +43985,7 @@
       </c>
     </row>
     <row r="95" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A95" s="78"/>
+      <c r="A95" s="80"/>
       <c r="B95" s="3" t="s">
         <v>7</v>
       </c>
@@ -43807,7 +44027,7 @@
       <c r="AL95" s="2"/>
     </row>
     <row r="96" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A96" s="78"/>
+      <c r="A96" s="80"/>
       <c r="B96" s="3" t="s">
         <v>6</v>
       </c>
@@ -43849,7 +44069,7 @@
       <c r="AL96" s="2"/>
     </row>
     <row r="97" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A97" s="78"/>
+      <c r="A97" s="80"/>
       <c r="B97" s="3" t="s">
         <v>5</v>
       </c>
@@ -43891,7 +44111,7 @@
       <c r="AL97" s="2"/>
     </row>
     <row r="98" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A98" s="78"/>
+      <c r="A98" s="80"/>
       <c r="B98" s="3" t="s">
         <v>3</v>
       </c>
@@ -43933,7 +44153,7 @@
       <c r="AL98" s="2"/>
     </row>
     <row r="99" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A99" s="78"/>
+      <c r="A99" s="80"/>
       <c r="B99" s="3" t="s">
         <v>4</v>
       </c>
@@ -43975,7 +44195,7 @@
       <c r="AL99" s="2"/>
     </row>
     <row r="100" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A100" s="78"/>
+      <c r="A100" s="80"/>
       <c r="B100" s="3" t="s">
         <v>1</v>
       </c>
@@ -44017,7 +44237,7 @@
       <c r="AL100" s="36"/>
     </row>
     <row r="101" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A101" s="78"/>
+      <c r="A101" s="80"/>
       <c r="B101" s="3" t="s">
         <v>8</v>
       </c>
@@ -44059,7 +44279,7 @@
       <c r="AL101" s="2"/>
     </row>
     <row r="102" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A102" s="78"/>
+      <c r="A102" s="80"/>
       <c r="B102" s="3" t="s">
         <v>9</v>
       </c>
@@ -44101,7 +44321,7 @@
       <c r="AL102" s="2"/>
     </row>
     <row r="103" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A103" s="78"/>
+      <c r="A103" s="80"/>
       <c r="B103" s="3" t="s">
         <v>926</v>
       </c>
@@ -44143,7 +44363,7 @@
       <c r="AL103" s="9"/>
     </row>
     <row r="104" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A104" s="78"/>
+      <c r="A104" s="80"/>
       <c r="B104" s="3" t="s">
         <v>10</v>
       </c>
@@ -44185,7 +44405,7 @@
       <c r="AL104" s="2"/>
     </row>
     <row r="105" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A105" s="78"/>
+      <c r="A105" s="80"/>
       <c r="B105" s="3" t="s">
         <v>15</v>
       </c>
@@ -44227,7 +44447,7 @@
       <c r="AL105" s="2"/>
     </row>
     <row r="106" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A106" s="78"/>
+      <c r="A106" s="80"/>
       <c r="B106" s="3" t="s">
         <v>16</v>
       </c>
@@ -44415,7 +44635,7 @@
       </c>
     </row>
     <row r="108" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A108" s="78"/>
+      <c r="A108" s="80"/>
       <c r="B108" s="3" t="s">
         <v>7</v>
       </c>
@@ -44457,7 +44677,7 @@
       <c r="AL108" s="2"/>
     </row>
     <row r="109" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A109" s="78"/>
+      <c r="A109" s="80"/>
       <c r="B109" s="3" t="s">
         <v>6</v>
       </c>
@@ -44499,7 +44719,7 @@
       <c r="AL109" s="2"/>
     </row>
     <row r="110" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A110" s="78"/>
+      <c r="A110" s="80"/>
       <c r="B110" s="3" t="s">
         <v>5</v>
       </c>
@@ -44541,7 +44761,7 @@
       <c r="AL110" s="2"/>
     </row>
     <row r="111" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A111" s="78"/>
+      <c r="A111" s="80"/>
       <c r="B111" s="3" t="s">
         <v>3</v>
       </c>
@@ -44583,7 +44803,7 @@
       <c r="AL111" s="2"/>
     </row>
     <row r="112" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A112" s="78"/>
+      <c r="A112" s="80"/>
       <c r="B112" s="3" t="s">
         <v>4</v>
       </c>
@@ -44625,7 +44845,7 @@
       <c r="AL112" s="2"/>
     </row>
     <row r="113" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A113" s="78"/>
+      <c r="A113" s="80"/>
       <c r="B113" s="3" t="s">
         <v>1</v>
       </c>
@@ -44667,7 +44887,7 @@
       <c r="AL113" s="36"/>
     </row>
     <row r="114" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A114" s="78"/>
+      <c r="A114" s="80"/>
       <c r="B114" s="3" t="s">
         <v>8</v>
       </c>
@@ -44709,7 +44929,7 @@
       <c r="AL114" s="2"/>
     </row>
     <row r="115" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A115" s="78"/>
+      <c r="A115" s="80"/>
       <c r="B115" s="3" t="s">
         <v>9</v>
       </c>
@@ -44751,7 +44971,7 @@
       <c r="AL115" s="2"/>
     </row>
     <row r="116" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A116" s="78"/>
+      <c r="A116" s="80"/>
       <c r="B116" s="3" t="s">
         <v>926</v>
       </c>
@@ -44793,7 +45013,7 @@
       <c r="AL116" s="9"/>
     </row>
     <row r="117" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A117" s="78"/>
+      <c r="A117" s="80"/>
       <c r="B117" s="3" t="s">
         <v>10</v>
       </c>
@@ -44835,7 +45055,7 @@
       <c r="AL117" s="2"/>
     </row>
     <row r="118" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A118" s="78"/>
+      <c r="A118" s="80"/>
       <c r="B118" s="3" t="s">
         <v>15</v>
       </c>
@@ -44877,7 +45097,7 @@
       <c r="AL118" s="2"/>
     </row>
     <row r="119" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A119" s="78"/>
+      <c r="A119" s="80"/>
       <c r="B119" s="3" t="s">
         <v>16</v>
       </c>
@@ -45065,7 +45285,7 @@
       </c>
     </row>
     <row r="121" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A121" s="78"/>
+      <c r="A121" s="80"/>
       <c r="B121" s="3" t="s">
         <v>7</v>
       </c>
@@ -45107,7 +45327,7 @@
       <c r="AL121" s="2"/>
     </row>
     <row r="122" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A122" s="78"/>
+      <c r="A122" s="80"/>
       <c r="B122" s="3" t="s">
         <v>6</v>
       </c>
@@ -45149,7 +45369,7 @@
       <c r="AL122" s="2"/>
     </row>
     <row r="123" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A123" s="78"/>
+      <c r="A123" s="80"/>
       <c r="B123" s="3" t="s">
         <v>5</v>
       </c>
@@ -45191,7 +45411,7 @@
       <c r="AL123" s="2"/>
     </row>
     <row r="124" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A124" s="78"/>
+      <c r="A124" s="80"/>
       <c r="B124" s="3" t="s">
         <v>3</v>
       </c>
@@ -45233,7 +45453,7 @@
       <c r="AL124" s="2"/>
     </row>
     <row r="125" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A125" s="78"/>
+      <c r="A125" s="80"/>
       <c r="B125" s="3" t="s">
         <v>4</v>
       </c>
@@ -45275,7 +45495,7 @@
       <c r="AL125" s="2"/>
     </row>
     <row r="126" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A126" s="78"/>
+      <c r="A126" s="80"/>
       <c r="B126" s="3" t="s">
         <v>1</v>
       </c>
@@ -45317,7 +45537,7 @@
       <c r="AL126" s="37"/>
     </row>
     <row r="127" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A127" s="78"/>
+      <c r="A127" s="80"/>
       <c r="B127" s="3" t="s">
         <v>8</v>
       </c>
@@ -45359,7 +45579,7 @@
       <c r="AL127" s="2"/>
     </row>
     <row r="128" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A128" s="78"/>
+      <c r="A128" s="80"/>
       <c r="B128" s="3" t="s">
         <v>9</v>
       </c>
@@ -45401,7 +45621,7 @@
       <c r="AL128" s="2"/>
     </row>
     <row r="129" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A129" s="78"/>
+      <c r="A129" s="80"/>
       <c r="B129" s="3" t="s">
         <v>926</v>
       </c>
@@ -45443,7 +45663,7 @@
       <c r="AL129" s="9"/>
     </row>
     <row r="130" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A130" s="78"/>
+      <c r="A130" s="80"/>
       <c r="B130" s="3" t="s">
         <v>10</v>
       </c>
@@ -45485,7 +45705,7 @@
       <c r="AL130" s="2"/>
     </row>
     <row r="131" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A131" s="78"/>
+      <c r="A131" s="80"/>
       <c r="B131" s="3" t="s">
         <v>15</v>
       </c>
@@ -45527,7 +45747,7 @@
       <c r="AL131" s="2"/>
     </row>
     <row r="132" spans="1:38" hidden="1" outlineLevel="1" x14ac:dyDescent="0.45">
-      <c r="A132" s="78"/>
+      <c r="A132" s="80"/>
       <c r="B132" s="3" t="s">
         <v>16</v>
       </c>
@@ -46466,17 +46686,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A69:A80"/>
-    <mergeCell ref="A82:A93"/>
-    <mergeCell ref="A95:A106"/>
-    <mergeCell ref="A108:A119"/>
-    <mergeCell ref="A121:A132"/>
     <mergeCell ref="A56:A67"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:A15"/>
     <mergeCell ref="A17:A28"/>
     <mergeCell ref="A30:A41"/>
     <mergeCell ref="A43:A54"/>
+    <mergeCell ref="A69:A80"/>
+    <mergeCell ref="A82:A93"/>
+    <mergeCell ref="A95:A106"/>
+    <mergeCell ref="A108:A119"/>
+    <mergeCell ref="A121:A132"/>
   </mergeCells>
   <conditionalFormatting sqref="A3:XFD3">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
